--- a/data/trans_orig/P34A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>57810</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>45250</v>
+        <v>44502</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72314</v>
+        <v>71314</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1185304325094106</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09277903451374599</v>
+        <v>0.09124574882115195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1482695979394552</v>
+        <v>0.1462195835770048</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -765,19 +765,19 @@
         <v>19728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12175</v>
+        <v>12512</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28184</v>
+        <v>28943</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0430678417666194</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02657941409637914</v>
+        <v>0.02731629940188382</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0615292428892179</v>
+        <v>0.0631855477543689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -786,19 +786,19 @@
         <v>77537</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>62826</v>
+        <v>61954</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94195</v>
+        <v>94535</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08198237710361347</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06642821099495874</v>
+        <v>0.06550603944110985</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09959532077633043</v>
+        <v>0.09995487932962023</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>111952</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>94892</v>
+        <v>95368</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>129970</v>
+        <v>131498</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2295423386538977</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1945632263264983</v>
+        <v>0.1955379482390812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2664863737524014</v>
+        <v>0.2696182896472348</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>54</v>
@@ -836,19 +836,19 @@
         <v>49210</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37248</v>
+        <v>37419</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>63309</v>
+        <v>61576</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1074322196227271</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08131803812225621</v>
+        <v>0.08169022715492891</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1382113703882063</v>
+        <v>0.1344287495503844</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>168</v>
@@ -857,19 +857,19 @@
         <v>161162</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>141434</v>
+        <v>140184</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186082</v>
+        <v>184211</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1704019440288161</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1495421281676511</v>
+        <v>0.1482209074776062</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1967504944226555</v>
+        <v>0.1947717745321704</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>194042</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>173908</v>
+        <v>174050</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>214919</v>
+        <v>214991</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3978561380789937</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3565748867959274</v>
+        <v>0.3568648831461241</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4406611847855379</v>
+        <v>0.4408097956788298</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>205</v>
@@ -907,19 +907,19 @@
         <v>194176</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>174743</v>
+        <v>173607</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>216916</v>
+        <v>213057</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4239094902375007</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3814859078936053</v>
+        <v>0.3790055992120532</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4735556028826571</v>
+        <v>0.4651289826416409</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>401</v>
@@ -928,19 +928,19 @@
         <v>388218</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>359248</v>
+        <v>360562</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>418832</v>
+        <v>418406</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4104743022424978</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3798440533899832</v>
+        <v>0.3812328709301186</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4428440127880165</v>
+        <v>0.442393812634559</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>123915</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>104426</v>
+        <v>105060</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143010</v>
+        <v>145609</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.254071090757698</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2141101642931575</v>
+        <v>0.2154109423587231</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2932226677935216</v>
+        <v>0.2985501471863579</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>197</v>
@@ -978,19 +978,19 @@
         <v>194946</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>173725</v>
+        <v>177204</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>215822</v>
+        <v>216344</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4255904483731527</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3792629480057143</v>
+        <v>0.3868579412591125</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4711658428331131</v>
+        <v>0.4723066562196569</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>319</v>
@@ -999,19 +999,19 @@
         <v>318861</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>291245</v>
+        <v>292288</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>347440</v>
+        <v>347261</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3371413766250727</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3079418665827262</v>
+        <v>0.309045470519382</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3673584929107521</v>
+        <v>0.3671692488350926</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>54804</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>41517</v>
+        <v>41482</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>70766</v>
+        <v>71164</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0760581469833088</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05761733472730739</v>
+        <v>0.0575686708924899</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09820965554575931</v>
+        <v>0.09876266317508577</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -1124,19 +1124,19 @@
         <v>15367</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8736</v>
+        <v>8971</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24331</v>
+        <v>25521</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02497447109958702</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01419773431725476</v>
+        <v>0.01457992728937082</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.039543825928138</v>
+        <v>0.04147649627463725</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>66</v>
@@ -1145,19 +1145,19 @@
         <v>70171</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>55911</v>
+        <v>55280</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>89139</v>
+        <v>90647</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05252884137597788</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04185404300850965</v>
+        <v>0.04138133051464152</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06672780629910408</v>
+        <v>0.06785640683002017</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>133565</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112895</v>
+        <v>114179</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155494</v>
+        <v>155769</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1853636581496953</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.156677404578755</v>
+        <v>0.1584588214057324</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2157967962278378</v>
+        <v>0.2161773532228907</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1195,19 +1195,19 @@
         <v>44806</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32428</v>
+        <v>32360</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59142</v>
+        <v>58808</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07281877722594664</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05270317970453603</v>
+        <v>0.05259156751895016</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09611808826715566</v>
+        <v>0.09557502751566245</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>170</v>
@@ -1216,19 +1216,19 @@
         <v>178371</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152861</v>
+        <v>153493</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>204551</v>
+        <v>204909</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1335251235888066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.114428937841974</v>
+        <v>0.114902300018431</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1531230279297323</v>
+        <v>0.1533910306379611</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>270407</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>242227</v>
+        <v>245146</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>299621</v>
+        <v>297319</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3752739341311183</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3361660128440771</v>
+        <v>0.3402161631189204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4158180369717542</v>
+        <v>0.4126220789031417</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>264</v>
@@ -1266,19 +1266,19 @@
         <v>279381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>254372</v>
+        <v>255732</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>303974</v>
+        <v>305425</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4540550527501631</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4134104249910882</v>
+        <v>0.4156199248851574</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4940240502682107</v>
+        <v>0.4963827555915196</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>527</v>
@@ -1287,19 +1287,19 @@
         <v>549788</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>511714</v>
+        <v>513878</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>587612</v>
+        <v>586307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4115607710512777</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3830592440996343</v>
+        <v>0.3846793759513748</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4398756996489471</v>
+        <v>0.4388986420248672</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>261782</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>234762</v>
+        <v>235929</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>290363</v>
+        <v>289785</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3633042607358776</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3258054391151284</v>
+        <v>0.3274250229851731</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4029696810153124</v>
+        <v>0.4021663140430063</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>259</v>
@@ -1337,19 +1337,19 @@
         <v>275749</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>250241</v>
+        <v>251797</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>300366</v>
+        <v>297754</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4481516989243033</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.406696932769925</v>
+        <v>0.4092256960525229</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.488160107273276</v>
+        <v>0.4839155815441158</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>508</v>
@@ -1358,19 +1358,19 @@
         <v>537530</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>500159</v>
+        <v>501823</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>573223</v>
+        <v>576316</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4023852639839379</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.374409385891086</v>
+        <v>0.3756556691664583</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4291039415590089</v>
+        <v>0.4314194444557607</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>26264</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16932</v>
+        <v>17593</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38116</v>
+        <v>39215</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04158051287129805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02680596064724923</v>
+        <v>0.02785316243546072</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06034440315135744</v>
+        <v>0.06208496701398036</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1483,19 +1483,19 @@
         <v>11888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5836</v>
+        <v>5694</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23189</v>
+        <v>21822</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01761335671894238</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008646906926351972</v>
+        <v>0.008436105571750226</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03435646543687214</v>
+        <v>0.03233133374987816</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -1504,19 +1504,19 @@
         <v>38152</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>27435</v>
+        <v>27433</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53004</v>
+        <v>52511</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02919975547007941</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02099793344576972</v>
+        <v>0.02099573132645444</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04056701534003278</v>
+        <v>0.04018934717593888</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>71158</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55849</v>
+        <v>56146</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>87901</v>
+        <v>89953</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1126561019258169</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08841921690459704</v>
+        <v>0.08888976399432064</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1391630821186225</v>
+        <v>0.1424122910266015</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>40</v>
@@ -1554,19 +1554,19 @@
         <v>41553</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>30026</v>
+        <v>29913</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>56742</v>
+        <v>55285</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06156466935296953</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04448616231308269</v>
+        <v>0.04431862480327143</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08406966936405816</v>
+        <v>0.08191138121740123</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>110</v>
@@ -1575,19 +1575,19 @@
         <v>112710</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>92331</v>
+        <v>92715</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>135655</v>
+        <v>133613</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08626370777007675</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07066602186021352</v>
+        <v>0.07095976643631337</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1038248162980026</v>
+        <v>0.102261884072747</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>254043</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>227079</v>
+        <v>230711</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>276299</v>
+        <v>282102</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4021973037819567</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3595089105790981</v>
+        <v>0.3652579207851109</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4374328889333162</v>
+        <v>0.4466189761376704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>310</v>
@@ -1625,19 +1625,19 @@
         <v>320332</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>293984</v>
+        <v>296832</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>348591</v>
+        <v>347444</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4746060425647828</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4355688716814819</v>
+        <v>0.4397888396451322</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5164750720118471</v>
+        <v>0.514775480362446</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>559</v>
@@ -1646,19 +1646,19 @@
         <v>574375</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>540890</v>
+        <v>537544</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>611303</v>
+        <v>610149</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4396016175394848</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.413973953336666</v>
+        <v>0.4114130679271162</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4678647363858981</v>
+        <v>0.4669818478924891</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>280173</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>254702</v>
+        <v>254293</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>307200</v>
+        <v>305191</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4435660814209283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4032403380152793</v>
+        <v>0.4025926424629266</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4863547108217761</v>
+        <v>0.4831745859599835</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>284</v>
@@ -1696,19 +1696,19 @@
         <v>301170</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>274090</v>
+        <v>276575</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>326369</v>
+        <v>326910</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4462159313633053</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4060935344484243</v>
+        <v>0.409775863117103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4835508059507249</v>
+        <v>0.484353404559792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>546</v>
@@ -1717,19 +1717,19 @@
         <v>581343</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>545999</v>
+        <v>544941</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>615598</v>
+        <v>618757</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.444934919220359</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4178842640244845</v>
+        <v>0.4170743057612893</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4711518710808802</v>
+        <v>0.4735701551234638</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>6240</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2604</v>
+        <v>1957</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12773</v>
+        <v>12808</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01212398039944056</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005058330014898718</v>
+        <v>0.003801739119395789</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02481708098240406</v>
+        <v>0.02488438453795267</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1842,19 +1842,19 @@
         <v>3058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9098</v>
+        <v>8148</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006066076283321984</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001933105953868585</v>
+        <v>0.001935191101241414</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01804799267338645</v>
+        <v>0.01616375253326774</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -1863,19 +1863,19 @@
         <v>9298</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4360</v>
+        <v>4586</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17364</v>
+        <v>17986</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009126597038975349</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004280057954463806</v>
+        <v>0.004501271442073622</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01704372175618789</v>
+        <v>0.01765467684545295</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>40546</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>29993</v>
+        <v>29428</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>54923</v>
+        <v>53803</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07877474667694645</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0582721581645607</v>
+        <v>0.05717498748688801</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1067082362325031</v>
+        <v>0.1045321649610454</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>28</v>
@@ -1913,19 +1913,19 @@
         <v>28684</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19353</v>
+        <v>19064</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>39977</v>
+        <v>39623</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05690368323780859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03839233262348594</v>
+        <v>0.03781930835471144</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07930554166627037</v>
+        <v>0.07860444661193937</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>66</v>
@@ -1934,19 +1934,19 @@
         <v>69230</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>54688</v>
+        <v>54108</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>86936</v>
+        <v>86198</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06795318853215464</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05367940734324296</v>
+        <v>0.0531103813778344</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08533305112135552</v>
+        <v>0.08460836629394169</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>213707</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>189018</v>
+        <v>187888</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>234996</v>
+        <v>234609</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.415205867155675</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3672368928134376</v>
+        <v>0.3650423565065923</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4565662280159379</v>
+        <v>0.4558147800325593</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>246</v>
@@ -1984,19 +1984,19 @@
         <v>250267</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>227610</v>
+        <v>227241</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>272565</v>
+        <v>272856</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4964780681154055</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4515313659061342</v>
+        <v>0.4507992815333275</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5407126628794795</v>
+        <v>0.5412913604311094</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>446</v>
@@ -2005,19 +2005,19 @@
         <v>463974</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>428818</v>
+        <v>432973</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>496692</v>
+        <v>494851</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4554184453272099</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4209105432111766</v>
+        <v>0.4249888153486704</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4875336225950488</v>
+        <v>0.4857259753985574</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>254209</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>232145</v>
+        <v>233346</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>279255</v>
+        <v>280709</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4938954057679379</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4510276786252266</v>
+        <v>0.4533607022510986</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.542556129196532</v>
+        <v>0.5453811168671567</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>214</v>
@@ -2055,19 +2055,19 @@
         <v>222075</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>200722</v>
+        <v>198331</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>245214</v>
+        <v>245044</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4405521723634639</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3981917853482853</v>
+        <v>0.3934492697944338</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4864551873991801</v>
+        <v>0.4861166306967275</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>450</v>
@@ -2076,19 +2076,19 @@
         <v>476284</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>442837</v>
+        <v>446091</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>510697</v>
+        <v>511412</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4675017691016601</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4346714999485597</v>
+        <v>0.4378649435304255</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5012795869077146</v>
+        <v>0.5019820178012772</v>
       </c>
     </row>
     <row r="23">
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6585</v>
+        <v>6453</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005189140666538923</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01737496954096872</v>
+        <v>0.01702609450665864</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -2204,7 +2204,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4895</v>
+        <v>5206</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002440002054616827</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01224307958545651</v>
+        <v>0.01302086505060354</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -2222,19 +2222,19 @@
         <v>2942</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>923</v>
+        <v>932</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>7955</v>
+        <v>7911</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.003777833502037178</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001185578575242658</v>
+        <v>0.001196371241083137</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01021468495666584</v>
+        <v>0.01015819106985204</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>15956</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9323</v>
+        <v>9764</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>24933</v>
+        <v>26057</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04210067529362525</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02459992153445472</v>
+        <v>0.02576395287172467</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06578880737423515</v>
+        <v>0.06875287521028217</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -2272,19 +2272,19 @@
         <v>8444</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3424</v>
+        <v>4221</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15888</v>
+        <v>16122</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0211199228401255</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.008564574190704161</v>
+        <v>0.01055846915826771</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03973984702315318</v>
+        <v>0.04032509012218496</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -2293,19 +2293,19 @@
         <v>24399</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15473</v>
+        <v>15623</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>35801</v>
+        <v>35977</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03132992472984799</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01986794273016115</v>
+        <v>0.02006042426914863</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04596950205436193</v>
+        <v>0.04619645381403757</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>169650</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>149972</v>
+        <v>151517</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>187983</v>
+        <v>188897</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4476395830917695</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3957176629429789</v>
+        <v>0.399793758511818</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4960132458242675</v>
+        <v>0.4984255464681027</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>212</v>
@@ -2343,19 +2343,19 @@
         <v>215055</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>194388</v>
+        <v>194641</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>233719</v>
+        <v>236504</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.537903744344064</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4862117730248414</v>
+        <v>0.4868442570449539</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.584587537293814</v>
+        <v>0.5915530621830069</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>383</v>
@@ -2364,19 +2364,19 @@
         <v>384705</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>355657</v>
+        <v>358263</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>411343</v>
+        <v>413700</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4939779004543987</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4566785909819372</v>
+        <v>0.4600254607674358</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5281827136351719</v>
+        <v>0.5312084892462613</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>191416</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>173826</v>
+        <v>173652</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>210981</v>
+        <v>210297</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.5050706009480663</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4586571909156814</v>
+        <v>0.4581990877960944</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5566959975636321</v>
+        <v>0.5548919106400005</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>171</v>
@@ -2414,19 +2414,19 @@
         <v>175328</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>156661</v>
+        <v>154353</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>195761</v>
+        <v>195600</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4385363307611937</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3918462440956885</v>
+        <v>0.3860727546304611</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4896438300187191</v>
+        <v>0.4892432105675725</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>367</v>
@@ -2435,19 +2435,19 @@
         <v>366743</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>338336</v>
+        <v>337069</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>396247</v>
+        <v>393979</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4709143413137161</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4344378655075689</v>
+        <v>0.432811361889668</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.5087979501963003</v>
+        <v>0.5058860209895062</v>
       </c>
     </row>
     <row r="28">
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4696</v>
+        <v>4729</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003230777582054707</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01624253798718886</v>
+        <v>0.01635816158694596</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>3</v>
@@ -2560,19 +2560,19 @@
         <v>2853</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>7967</v>
+        <v>7900</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.008426874501139691</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002534926910898402</v>
+        <v>0.002528448057561356</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.02353415968906966</v>
+        <v>0.02333506692604154</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4</v>
@@ -2581,19 +2581,19 @@
         <v>3787</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>9461</v>
+        <v>10206</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.006033463753760422</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.00149422997448593</v>
+        <v>0.001496143278458975</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01507335749833002</v>
+        <v>0.01626077292582038</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>15214</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9250</v>
+        <v>8352</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24591</v>
+        <v>24631</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05262352537641486</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03199445095731839</v>
+        <v>0.02888720795642744</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08505710253827134</v>
+        <v>0.08519448340330799</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>13</v>
@@ -2631,19 +2631,19 @@
         <v>12134</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>6402</v>
+        <v>7074</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>19213</v>
+        <v>19551</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.03584015403648418</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.01890964965203558</v>
+        <v>0.02089525228489781</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05675057021846809</v>
+        <v>0.05774975052584536</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>28</v>
@@ -2652,19 +2652,19 @@
         <v>27348</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18113</v>
+        <v>19162</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>39433</v>
+        <v>37850</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04357086075111586</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02885766706364938</v>
+        <v>0.03052877723490321</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06282617398669686</v>
+        <v>0.06030398926010128</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>160629</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>143422</v>
+        <v>143783</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>177051</v>
+        <v>175585</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5555980361531404</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4960820963013332</v>
+        <v>0.4973304409036592</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6124002202200532</v>
+        <v>0.6073286206592536</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>175</v>
@@ -2702,19 +2702,19 @@
         <v>161292</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>142908</v>
+        <v>144375</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>178657</v>
+        <v>177283</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4764223439332949</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4221209000889577</v>
+        <v>0.4264545690908232</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5277144406586578</v>
+        <v>0.5236556164481945</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>341</v>
@@ -2723,19 +2723,19 @@
         <v>321921</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>298663</v>
+        <v>296940</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>346317</v>
+        <v>344383</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5128920163895857</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4758370740711831</v>
+        <v>0.4730917510877247</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5517610041095939</v>
+        <v>0.5486795207021329</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>112333</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>95255</v>
+        <v>96286</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>129624</v>
+        <v>128228</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.38854766088839</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3294769041679769</v>
+        <v>0.3330427731524396</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4483554261184504</v>
+        <v>0.4435266702245985</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>175</v>
@@ -2773,19 +2773,19 @@
         <v>162270</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>144726</v>
+        <v>146458</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>180665</v>
+        <v>179141</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4793106275290813</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4274897201720287</v>
+        <v>0.4326049539651626</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5336465442993226</v>
+        <v>0.5291435878358738</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>292</v>
@@ -2794,19 +2794,19 @@
         <v>274603</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>251675</v>
+        <v>252618</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>298070</v>
+        <v>297903</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.437503659105538</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4009747233390397</v>
+        <v>0.4024774649838073</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4748925617227878</v>
+        <v>0.4746266583633185</v>
       </c>
     </row>
     <row r="33">
@@ -2914,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5606</v>
+        <v>5895</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.003429154465659888</v>
@@ -2923,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01709073006180098</v>
+        <v>0.0179714516291276</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5658</v>
+        <v>6227</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002095175205232397</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.010538238090008</v>
+        <v>0.01159875217452909</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>9624</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4617</v>
+        <v>5260</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17294</v>
+        <v>18642</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.04608031595484207</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02210726493628031</v>
+        <v>0.02518349283721708</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.08280437713811009</v>
+        <v>0.08925943938509519</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -2982,19 +2982,19 @@
         <v>6812</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2308</v>
+        <v>2361</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13820</v>
+        <v>13597</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02076644610995814</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.007036273209310291</v>
+        <v>0.007197725736138807</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04213152679139068</v>
+        <v>0.04145147207506639</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>16</v>
@@ -3003,19 +3003,19 @@
         <v>16436</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>9869</v>
+        <v>9468</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25248</v>
+        <v>26332</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0306138232731615</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01838241591641012</v>
+        <v>0.01763522695781829</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04702749333633555</v>
+        <v>0.04904787586811457</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>95925</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>81610</v>
+        <v>83494</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>110372</v>
+        <v>109741</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.459305203869968</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3907610916479791</v>
+        <v>0.3997838075943961</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5284760578705353</v>
+        <v>0.5254566074889503</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>105</v>
@@ -3053,19 +3053,19 @@
         <v>120560</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>103896</v>
+        <v>101034</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>138852</v>
+        <v>138576</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3675348508275898</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3167357820923938</v>
+        <v>0.3080084786409579</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4233011041021451</v>
+        <v>0.4224600036661704</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>205</v>
@@ -3074,19 +3074,19 @@
         <v>216485</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>195271</v>
+        <v>193052</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>238439</v>
+        <v>238697</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4032345397469933</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3637219410854144</v>
+        <v>0.3595888752323144</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4441288827836817</v>
+        <v>0.4446080733161538</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>103300</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>88637</v>
+        <v>88526</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>116791</v>
+        <v>116750</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4946144801751899</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4244055566950095</v>
+        <v>0.4238747999993163</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5592123329713782</v>
+        <v>0.5590177546186303</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>173</v>
@@ -3124,19 +3124,19 @@
         <v>199526</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>181864</v>
+        <v>181195</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>216901</v>
+        <v>219500</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6082695485967922</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5544256662719357</v>
+        <v>0.5523857572583286</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6612400622322573</v>
+        <v>0.6691611761188164</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>282</v>
@@ -3145,19 +3145,19 @@
         <v>302825</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>279535</v>
+        <v>280829</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>324540</v>
+        <v>328599</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5640564617746128</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5206747626211552</v>
+        <v>0.523086508515505</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.604503098385889</v>
+        <v>0.6120634539862445</v>
       </c>
     </row>
     <row r="38">
@@ -3249,19 +3249,19 @@
         <v>148019</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>125401</v>
+        <v>125561</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>175122</v>
+        <v>174167</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.0458040269942334</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.03880519038443635</v>
+        <v>0.03885456626172739</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.05419121733221514</v>
+        <v>0.05389549182397937</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>56</v>
@@ -3270,19 +3270,19 @@
         <v>54994</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>41902</v>
+        <v>41344</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>71932</v>
+        <v>71471</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01657051038481552</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01262585434737357</v>
+        <v>0.01245760616039316</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02167428791482326</v>
+        <v>0.02153546878188121</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>202</v>
@@ -3291,19 +3291,19 @@
         <v>203012</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>174601</v>
+        <v>175982</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>233181</v>
+        <v>231414</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03099269433867079</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02665533493891675</v>
+        <v>0.02686617899420117</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03559843349420144</v>
+        <v>0.03532868940375589</v>
       </c>
     </row>
     <row r="40">
@@ -3320,19 +3320,19 @@
         <v>398014</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>362281</v>
+        <v>363081</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>438280</v>
+        <v>440540</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1231646325205541</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1121071515329711</v>
+        <v>0.1123546823524462</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.135624774346488</v>
+        <v>0.136324121306983</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>192</v>
@@ -3341,19 +3341,19 @@
         <v>191642</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>166278</v>
+        <v>166798</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>218814</v>
+        <v>220069</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.05774505592647525</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.0501024687952623</v>
+        <v>0.05025910977778977</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06593246626621685</v>
+        <v>0.06631070159184532</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>582</v>
@@ -3362,19 +3362,19 @@
         <v>589656</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>541866</v>
+        <v>545276</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>633455</v>
+        <v>634830</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0900194203291203</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08272356212134514</v>
+        <v>0.08324422502583165</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.09670587580109627</v>
+        <v>0.09691587546809632</v>
       </c>
     </row>
     <row r="41">
@@ -3391,19 +3391,19 @@
         <v>1358403</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1303137</v>
+        <v>1294998</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1415749</v>
+        <v>1416015</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4203547744292568</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4032527493478191</v>
+        <v>0.4007343894286267</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.438100312264926</v>
+        <v>0.4381828223654883</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1517</v>
@@ -3412,19 +3412,19 @@
         <v>1541061</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1483469</v>
+        <v>1478499</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1599342</v>
+        <v>1595844</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4643486017273343</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4469950438808322</v>
+        <v>0.4454975028155058</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4819096076904887</v>
+        <v>0.4808556279643336</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2862</v>
@@ -3433,19 +3433,19 @@
         <v>2899464</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2820564</v>
+        <v>2816429</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2981018</v>
+        <v>2975260</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.4426445050699173</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4305992791327862</v>
+        <v>0.4299680116196401</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4550949220447632</v>
+        <v>0.4542158293176172</v>
       </c>
     </row>
     <row r="42">
@@ -3462,19 +3462,19 @@
         <v>1327127</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.4106765660559558</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1473</v>
@@ -3483,19 +3483,19 @@
         <v>1531062</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4613358319613749</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2764</v>
@@ -3504,19 +3504,19 @@
         <v>2858190</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.4363433802622917</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
     </row>
     <row r="43">
@@ -3851,19 +3851,19 @@
         <v>89347</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73669</v>
+        <v>73330</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>108232</v>
+        <v>108274</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1967353496483796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1622147297489018</v>
+        <v>0.1614669013797925</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2383199028541009</v>
+        <v>0.2384119156107606</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -3872,19 +3872,19 @@
         <v>23637</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15539</v>
+        <v>15462</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34236</v>
+        <v>33939</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05493964914531528</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03611754592345493</v>
+        <v>0.0359384901368389</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0795753725491968</v>
+        <v>0.07888559706884547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -3893,19 +3893,19 @@
         <v>112983</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>95158</v>
+        <v>93976</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136183</v>
+        <v>134832</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1277548035252989</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1075993432666863</v>
+        <v>0.1062626720008398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1539876786855431</v>
+        <v>0.1524595365027225</v>
       </c>
     </row>
     <row r="5">
@@ -3922,19 +3922,19 @@
         <v>160013</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139906</v>
+        <v>140689</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>180472</v>
+        <v>181898</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3523389450431157</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3080641376989257</v>
+        <v>0.3097887733261234</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3973885281725952</v>
+        <v>0.4005270336847714</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>48</v>
@@ -3943,19 +3943,19 @@
         <v>47687</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36264</v>
+        <v>35523</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62446</v>
+        <v>61116</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1108408836651851</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08428929148324332</v>
+        <v>0.08256797329438428</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.145145082419118</v>
+        <v>0.1420537597465601</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>205</v>
@@ -3964,19 +3964,19 @@
         <v>207700</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>182450</v>
+        <v>183146</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>235732</v>
+        <v>233207</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2348553534926447</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2063035664902848</v>
+        <v>0.2070901237794116</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2665516529490815</v>
+        <v>0.263696444214784</v>
       </c>
     </row>
     <row r="6">
@@ -3993,19 +3993,19 @@
         <v>133476</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114523</v>
+        <v>114084</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>154772</v>
+        <v>152792</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2939050017436183</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2521714875351971</v>
+        <v>0.2512057037468869</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3407970941257568</v>
+        <v>0.3364388567654982</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>225</v>
@@ -4014,19 +4014,19 @@
         <v>232654</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>209137</v>
+        <v>213519</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>250490</v>
+        <v>252546</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5407675047988928</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4861044207734078</v>
+        <v>0.4962907464716039</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5822241925188886</v>
+        <v>0.5870023008625661</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>357</v>
@@ -4035,19 +4035,19 @@
         <v>366130</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>336419</v>
+        <v>334566</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>396785</v>
+        <v>395206</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4139982783214615</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.380402859193911</v>
+        <v>0.3783070076534324</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4486607871672076</v>
+        <v>0.4468755902607356</v>
       </c>
     </row>
     <row r="7">
@@ -4064,19 +4064,19 @@
         <v>71310</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57143</v>
+        <v>55636</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>86811</v>
+        <v>86128</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1570207035648865</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1258251198026859</v>
+        <v>0.1225063748416926</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1911527153987342</v>
+        <v>0.1896473567749948</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>125</v>
@@ -4085,19 +4085,19 @@
         <v>126252</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107781</v>
+        <v>108242</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>144932</v>
+        <v>145540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2934519623906068</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2505188710836762</v>
+        <v>0.2515908414180176</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3368703245773585</v>
+        <v>0.3382845060455943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>194</v>
@@ -4106,19 +4106,19 @@
         <v>197562</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>175061</v>
+        <v>174722</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>223675</v>
+        <v>225234</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.223391564660595</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1979484646142301</v>
+        <v>0.1975655332168802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2529180083166348</v>
+        <v>0.254681676494378</v>
       </c>
     </row>
     <row r="8">
@@ -4210,19 +4210,19 @@
         <v>111484</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>94640</v>
+        <v>93121</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>134132</v>
+        <v>131360</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1626725200020007</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1380947725294156</v>
+        <v>0.1358774349544832</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1957194433525753</v>
+        <v>0.1916743247378351</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -4231,19 +4231,19 @@
         <v>16870</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9472</v>
+        <v>9662</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28294</v>
+        <v>26655</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02764380564866621</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01552089294176992</v>
+        <v>0.01583303067223823</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.04636475931474381</v>
+        <v>0.04367887127828082</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>127</v>
@@ -4252,19 +4252,19 @@
         <v>128354</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>109743</v>
+        <v>109529</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>150527</v>
+        <v>154275</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09907033623451822</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0847051481069038</v>
+        <v>0.08454006873295096</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1161846378471837</v>
+        <v>0.1190771373915898</v>
       </c>
     </row>
     <row r="10">
@@ -4281,19 +4281,19 @@
         <v>183717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>161350</v>
+        <v>161758</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>212466</v>
+        <v>206795</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2680716731405626</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2354349582140209</v>
+        <v>0.2360298771389773</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3100207723174845</v>
+        <v>0.3017455196792264</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -4302,19 +4302,19 @@
         <v>61575</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48070</v>
+        <v>48327</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78941</v>
+        <v>78611</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1009011552768223</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07876971274659084</v>
+        <v>0.07919196762903676</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1293579257612902</v>
+        <v>0.1288165297254484</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>233</v>
@@ -4323,19 +4323,19 @@
         <v>245293</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>217182</v>
+        <v>217969</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>274007</v>
+        <v>273787</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1893298288699239</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1676320062851761</v>
+        <v>0.1682396298639639</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2114931622165558</v>
+        <v>0.2113233983801063</v>
       </c>
     </row>
     <row r="11">
@@ -4352,19 +4352,19 @@
         <v>256536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>228463</v>
+        <v>231738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>281058</v>
+        <v>281680</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3743255617283152</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3333629286279509</v>
+        <v>0.3381409125695177</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4101069898416497</v>
+        <v>0.4110141134762895</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>339</v>
@@ -4373,19 +4373,19 @@
         <v>361250</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>337675</v>
+        <v>336515</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>386313</v>
+        <v>383961</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5919648771647638</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5533342514348943</v>
+        <v>0.5514336560598383</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6330357446929249</v>
+        <v>0.6291810914932976</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>583</v>
@@ -4394,19 +4394,19 @@
         <v>617786</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>577882</v>
+        <v>581364</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>651781</v>
+        <v>655933</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4768395773709166</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4460394093454042</v>
+        <v>0.4487267541808365</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5030782243396884</v>
+        <v>0.5062834331682854</v>
       </c>
     </row>
     <row r="12">
@@ -4423,19 +4423,19 @@
         <v>133591</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>112532</v>
+        <v>111464</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>156091</v>
+        <v>153943</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1949302451291215</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1642013211900044</v>
+        <v>0.162642610475068</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2277609910291864</v>
+        <v>0.2246265631624668</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>161</v>
@@ -4444,19 +4444,19 @@
         <v>170560</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>146559</v>
+        <v>149913</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>194387</v>
+        <v>195269</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2794901619097477</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2401606745090315</v>
+        <v>0.2456555608830777</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3185343045681137</v>
+        <v>0.3199801318593646</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>293</v>
@@ -4465,19 +4465,19 @@
         <v>304152</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>274998</v>
+        <v>276657</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>333661</v>
+        <v>335027</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2347602575246413</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.212258021606632</v>
+        <v>0.2135382275060918</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2575368233976347</v>
+        <v>0.2585910761547416</v>
       </c>
     </row>
     <row r="13">
@@ -4569,19 +4569,19 @@
         <v>47412</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34186</v>
+        <v>35651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62484</v>
+        <v>62292</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06953350539989414</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05013646711885778</v>
+        <v>0.05228525252600363</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09163755059063437</v>
+        <v>0.09135501078323949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>13</v>
@@ -4590,19 +4590,19 @@
         <v>15728</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8968</v>
+        <v>8416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26626</v>
+        <v>27033</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02212600081248044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01261625615370488</v>
+        <v>0.01183902361129089</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03745655097997616</v>
+        <v>0.0380292302406481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -4611,19 +4611,19 @@
         <v>63141</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>48859</v>
+        <v>48940</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>79533</v>
+        <v>82315</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04533639882209457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03508192066899318</v>
+        <v>0.03513993618436893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05710623659506828</v>
+        <v>0.05910440478383548</v>
       </c>
     </row>
     <row r="15">
@@ -4640,19 +4640,19 @@
         <v>118490</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>98364</v>
+        <v>99446</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>141106</v>
+        <v>139833</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1737737217163919</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1442572143525195</v>
+        <v>0.1458442270710021</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.206941382040427</v>
+        <v>0.2050747148907136</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>50</v>
@@ -4661,19 +4661,19 @@
         <v>54781</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>42488</v>
+        <v>41131</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>69730</v>
+        <v>71626</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07706472275879676</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05977121377075118</v>
+        <v>0.05786208845872808</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09809403538708089</v>
+        <v>0.1007603713262863</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>163</v>
@@ -4682,19 +4682,19 @@
         <v>173271</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>148175</v>
+        <v>149730</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>199324</v>
+        <v>200887</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1244128035416245</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1063929182651701</v>
+        <v>0.1075093440013433</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1431192889656883</v>
+        <v>0.1442414357887126</v>
       </c>
     </row>
     <row r="16">
@@ -4711,19 +4711,19 @@
         <v>345447</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>317950</v>
+        <v>317839</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>371801</v>
+        <v>374269</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5066222007947883</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4662965540121937</v>
+        <v>0.4661332029813569</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5452728707239646</v>
+        <v>0.5488923870021605</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>414</v>
@@ -4732,19 +4732,19 @@
         <v>439847</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>411105</v>
+        <v>409243</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>466722</v>
+        <v>465093</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6187613745568504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5783290588165173</v>
+        <v>0.5757100561145286</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6565693807978763</v>
+        <v>0.6542774318631388</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>743</v>
@@ -4753,19 +4753,19 @@
         <v>785293</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>744923</v>
+        <v>751303</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>823171</v>
+        <v>828728</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5638587831182418</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5348720959131027</v>
+        <v>0.5394534912383971</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5910564005770135</v>
+        <v>0.5950461649649508</v>
       </c>
     </row>
     <row r="17">
@@ -4782,19 +4782,19 @@
         <v>170514</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>150017</v>
+        <v>146401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196764</v>
+        <v>194200</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2500705720889257</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2200111597553767</v>
+        <v>0.2147069296702636</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2885680214302812</v>
+        <v>0.284807433219853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>190</v>
@@ -4803,19 +4803,19 @@
         <v>200494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>177283</v>
+        <v>176550</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225777</v>
+        <v>227723</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2820479018718723</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2493955962010251</v>
+        <v>0.2483647660254947</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3176149868198359</v>
+        <v>0.320352651742167</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>352</v>
@@ -4824,19 +4824,19 @@
         <v>371007</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>336306</v>
+        <v>337035</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404824</v>
+        <v>403713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2663920145180391</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.24147559882693</v>
+        <v>0.2419991748751696</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2906734844988744</v>
+        <v>0.2898757510934432</v>
       </c>
     </row>
     <row r="18">
@@ -4928,19 +4928,19 @@
         <v>27949</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17860</v>
+        <v>18632</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40607</v>
+        <v>41988</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04547325963778442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02905907187997627</v>
+        <v>0.03031444518242401</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06606856656232055</v>
+        <v>0.06831601006080948</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -4949,19 +4949,19 @@
         <v>4229</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9621</v>
+        <v>9723</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.006862362636703023</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001663674501852944</v>
+        <v>0.001660533018553897</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01561274065557811</v>
+        <v>0.01577865100679474</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>29</v>
@@ -4970,19 +4970,19 @@
         <v>32177</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>21509</v>
+        <v>21426</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45760</v>
+        <v>45345</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02614299073317664</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01747542053629119</v>
+        <v>0.01740768278812321</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03717872067922668</v>
+        <v>0.03684106425467586</v>
       </c>
     </row>
     <row r="20">
@@ -4999,19 +4999,19 @@
         <v>88385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70245</v>
+        <v>70155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>109951</v>
+        <v>107967</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1438046711305896</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1142905325376834</v>
+        <v>0.1141438734115226</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1788927763160575</v>
+        <v>0.1756660420456065</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -5020,19 +5020,19 @@
         <v>30493</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20424</v>
+        <v>20352</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>42972</v>
+        <v>43198</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04948625827994436</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03314455736632366</v>
+        <v>0.03302817955679111</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0697379530936087</v>
+        <v>0.07010362922619999</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>102</v>
@@ -5041,19 +5041,19 @@
         <v>118878</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>98058</v>
+        <v>99020</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>144600</v>
+        <v>145543</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09658483360628334</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07966922917874038</v>
+        <v>0.08045095792124869</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.117483045450627</v>
+        <v>0.1182494287371116</v>
       </c>
     </row>
     <row r="21">
@@ -5070,19 +5070,19 @@
         <v>345265</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>319562</v>
+        <v>318230</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>372800</v>
+        <v>371801</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.561755683324463</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5199371847830664</v>
+        <v>0.5177697314561519</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6065557982283349</v>
+        <v>0.6049307225239275</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>353</v>
@@ -5091,19 +5091,19 @@
         <v>406253</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>380397</v>
+        <v>381676</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>430424</v>
+        <v>431324</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6592889034690267</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.6173287925758721</v>
+        <v>0.6194037092096875</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6985143363519679</v>
+        <v>0.6999757233132304</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>666</v>
@@ -5112,19 +5112,19 @@
         <v>751518</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>714888</v>
+        <v>714128</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>789195</v>
+        <v>789181</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6105849910837187</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5808244766816016</v>
+        <v>0.5802068667920398</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6411963062226121</v>
+        <v>0.6411854841243552</v>
       </c>
     </row>
     <row r="22">
@@ -5141,19 +5141,19 @@
         <v>153019</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131352</v>
+        <v>131680</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>178300</v>
+        <v>178074</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.248966385907163</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2137135123685553</v>
+        <v>0.2142478671596429</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2900992570604324</v>
+        <v>0.2897320680591306</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>155</v>
@@ -5162,19 +5162,19 @@
         <v>175224</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>154077</v>
+        <v>151436</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>200514</v>
+        <v>199701</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2843624756143259</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2500443365334815</v>
+        <v>0.2457582453408389</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3254050596523045</v>
+        <v>0.3240855020627055</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>290</v>
@@ -5183,19 +5183,19 @@
         <v>328243</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>297758</v>
+        <v>295207</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>363093</v>
+        <v>358606</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2666871845768213</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2419189978695303</v>
+        <v>0.2398464947812787</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2950018379416025</v>
+        <v>0.2913559445981817</v>
       </c>
     </row>
     <row r="23">
@@ -5300,19 +5300,19 @@
         <v>6214</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2178</v>
+        <v>2117</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13480</v>
+        <v>13583</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01387567732463865</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004864796975219503</v>
+        <v>0.004727545242568422</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03010322093151873</v>
+        <v>0.03033264463287329</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>6</v>
@@ -5321,19 +5321,19 @@
         <v>6214</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12555</v>
+        <v>12515</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007083130143911546</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.002399735482339078</v>
+        <v>0.002397319561229494</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0143121669585417</v>
+        <v>0.01426624091558136</v>
       </c>
     </row>
     <row r="25">
@@ -5350,19 +5350,19 @@
         <v>32096</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>22328</v>
+        <v>22540</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>45427</v>
+        <v>45681</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07474168586938351</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05199528091885765</v>
+        <v>0.05248936269818522</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1057855542700697</v>
+        <v>0.1063756549481572</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -5371,19 +5371,19 @@
         <v>20141</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12203</v>
+        <v>12162</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31905</v>
+        <v>31504</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04497756146981666</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02725001339680336</v>
+        <v>0.02715848243402615</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.071247595337602</v>
+        <v>0.07035373899142196</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>46</v>
@@ -5392,19 +5392,19 @@
         <v>52237</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>39082</v>
+        <v>39406</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>68981</v>
+        <v>68749</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05954796510107534</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04455190435323934</v>
+        <v>0.04492123629823216</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07863457933056026</v>
+        <v>0.07837106420034808</v>
       </c>
     </row>
     <row r="26">
@@ -5421,19 +5421,19 @@
         <v>290911</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>270172</v>
+        <v>271139</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>309476</v>
+        <v>310758</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6774374561540546</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6291413855274741</v>
+        <v>0.6313934272283981</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.720668923699376</v>
+        <v>0.7236529628227591</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>279</v>
@@ -5442,19 +5442,19 @@
         <v>307215</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>286569</v>
+        <v>285536</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>326480</v>
+        <v>326972</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6860542660522693</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6399490427867046</v>
+        <v>0.6376423128879366</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7290759978649543</v>
+        <v>0.7301746414176971</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>545</v>
@@ -5463,19 +5463,19 @@
         <v>598126</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>567913</v>
+        <v>568411</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>627557</v>
+        <v>628937</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6818360872627518</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6473945339812359</v>
+        <v>0.6479616728512992</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7153860724411365</v>
+        <v>0.7169589428518996</v>
       </c>
     </row>
     <row r="27">
@@ -5492,19 +5492,19 @@
         <v>106421</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>89525</v>
+        <v>88647</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>125888</v>
+        <v>125590</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2478208579765619</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2084734743561397</v>
+        <v>0.2064287795888237</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2931522748739052</v>
+        <v>0.2924585576866784</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>104</v>
@@ -5513,19 +5513,19 @@
         <v>114230</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>96285</v>
+        <v>96609</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>133457</v>
+        <v>134302</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2550924951532754</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2150171922123505</v>
+        <v>0.2157413609493049</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2980270274563681</v>
+        <v>0.2999148993137861</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>202</v>
@@ -5534,19 +5534,19 @@
         <v>220652</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>195751</v>
+        <v>195247</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>249096</v>
+        <v>248910</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2515328174922613</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2231469043785345</v>
+        <v>0.2225724811558556</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.283958077356563</v>
+        <v>0.2837460955361199</v>
       </c>
     </row>
     <row r="28">
@@ -5638,19 +5638,19 @@
         <v>7967</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3864</v>
+        <v>3132</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>16786</v>
+        <v>15871</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02571657275790536</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01247307670665654</v>
+        <v>0.01010944832286143</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05418557057299885</v>
+        <v>0.05123332720356005</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5672,19 +5672,19 @@
         <v>7967</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3024</v>
+        <v>3069</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>15997</v>
+        <v>17652</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01200188722896686</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.004555832703226401</v>
+        <v>0.004623271749438616</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02409933297427793</v>
+        <v>0.0265930073120687</v>
       </c>
     </row>
     <row r="30">
@@ -5701,19 +5701,19 @@
         <v>12183</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>5406</v>
+        <v>5124</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>22169</v>
+        <v>22018</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03932573083266802</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.01745066567499967</v>
+        <v>0.01654150943530043</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07156195239281003</v>
+        <v>0.07107534116031201</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>15</v>
@@ -5722,19 +5722,19 @@
         <v>15806</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>8951</v>
+        <v>9228</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>24940</v>
+        <v>25072</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04464997744491907</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02528550581687942</v>
+        <v>0.02606674963721545</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.07045346050618248</v>
+        <v>0.07082623898035104</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>24</v>
@@ -5743,19 +5743,19 @@
         <v>27988</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>18124</v>
+        <v>17746</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>41552</v>
+        <v>41259</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04216515926867891</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02730405531699176</v>
+        <v>0.02673455819038191</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.06259922904363543</v>
+        <v>0.06215789256729608</v>
       </c>
     </row>
     <row r="31">
@@ -5772,19 +5772,19 @@
         <v>223532</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>204982</v>
+        <v>205250</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>240397</v>
+        <v>239164</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7215695762705282</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6616891742089196</v>
+        <v>0.6625529910185951</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.776010058106932</v>
+        <v>0.7720308709478425</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>217</v>
@@ -5793,19 +5793,19 @@
         <v>222022</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>203987</v>
+        <v>203031</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>241036</v>
+        <v>240794</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.6271888887826624</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.5762411682314196</v>
+        <v>0.5735401781504712</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.6809011472966643</v>
+        <v>0.6802164711795302</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>426</v>
@@ -5814,19 +5814,19 @@
         <v>445555</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>420003</v>
+        <v>420754</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>472071</v>
+        <v>470818</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.6712362188248633</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.6327425918618346</v>
+        <v>0.6338733544928195</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7111834013182617</v>
+        <v>0.7092960998764886</v>
       </c>
     </row>
     <row r="32">
@@ -5843,19 +5843,19 @@
         <v>66105</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>51004</v>
+        <v>52816</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>82674</v>
+        <v>82793</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2133881201388984</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1646436779488977</v>
+        <v>0.1704926596930437</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.266873601012517</v>
+        <v>0.2672595561440833</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>112</v>
@@ -5864,19 +5864,19 @@
         <v>116168</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>97782</v>
+        <v>98961</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>134196</v>
+        <v>135407</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3281611337724186</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2762223451092257</v>
+        <v>0.2795540004755089</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3790890039053422</v>
+        <v>0.3825088020538838</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>169</v>
@@ -5885,19 +5885,19 @@
         <v>182272</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>159361</v>
+        <v>159749</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>207055</v>
+        <v>207135</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.274596734677491</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2400807132851652</v>
+        <v>0.2406654312894987</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3119329528642766</v>
+        <v>0.3120530617717807</v>
       </c>
     </row>
     <row r="33">
@@ -5992,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>10968</v>
+        <v>10921</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.008801617962883293</v>
@@ -6001,7 +6001,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04389969948232121</v>
+        <v>0.04370967482988526</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3</v>
@@ -6010,19 +6010,19 @@
         <v>3514</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>1083</v>
+        <v>1092</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9481</v>
+        <v>9723</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.009059759317908993</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002792147790759195</v>
+        <v>0.002815546452040703</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02444415155114992</v>
+        <v>0.0250675005140818</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>4</v>
@@ -6031,19 +6031,19 @@
         <v>5713</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1267</v>
+        <v>1271</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>14761</v>
+        <v>16045</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.008958624631380524</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.001987323745635611</v>
+        <v>0.001992378997175778</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02314593987568177</v>
+        <v>0.0251589312743609</v>
       </c>
     </row>
     <row r="35">
@@ -6060,19 +6060,19 @@
         <v>5326</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1170</v>
+        <v>1138</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>12745</v>
+        <v>13040</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0213152096528117</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.004681801408878946</v>
+        <v>0.004553174693127732</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05101089127166344</v>
+        <v>0.05219142013282745</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>2</v>
@@ -6084,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>7470</v>
+        <v>7299</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.005454573564774259</v>
@@ -6093,7 +6093,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.01925794938589159</v>
+        <v>0.01881652672517768</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -6102,19 +6102,19 @@
         <v>7441</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3105</v>
+        <v>3035</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15777</v>
+        <v>15705</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01166845765454387</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.004868441245658031</v>
+        <v>0.004759526144865225</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02473954036848386</v>
+        <v>0.0246258930652463</v>
       </c>
     </row>
     <row r="36">
@@ -6131,19 +6131,19 @@
         <v>173558</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>156486</v>
+        <v>158491</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>186685</v>
+        <v>187767</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.6946468491012763</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.6263163483624206</v>
+        <v>0.6343431575055186</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.7471872799718633</v>
+        <v>0.7515173027674338</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>165</v>
@@ -6152,19 +6152,19 @@
         <v>184350</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>164858</v>
+        <v>161588</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>205118</v>
+        <v>203673</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.4752748648899042</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.4250213331004007</v>
+        <v>0.4165919135687685</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.5288174432012646</v>
+        <v>0.5250927214787805</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>319</v>
@@ -6173,19 +6173,19 @@
         <v>357908</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>330224</v>
+        <v>331919</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>384014</v>
+        <v>385950</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.5612204773398591</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.5178106700399162</v>
+        <v>0.5204672617117226</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.6021554158979824</v>
+        <v>0.6051916936933217</v>
       </c>
     </row>
     <row r="37">
@@ -6202,19 +6202,19 @@
         <v>68768</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>55961</v>
+        <v>55173</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>86854</v>
+        <v>84294</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2752363232830287</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.223976706601036</v>
+        <v>0.2208234172587119</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3476249935234406</v>
+        <v>0.3373752197843776</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>179</v>
@@ -6223,19 +6223,19 @@
         <v>197901</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>177549</v>
+        <v>178367</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>217335</v>
+        <v>220764</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5102108022274126</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4577401322058773</v>
+        <v>0.4598510015222645</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5603125919738826</v>
+        <v>0.5691538889646061</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>242</v>
@@ -6244,19 +6244,19 @@
         <v>266669</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>241505</v>
+        <v>237989</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>294296</v>
+        <v>292215</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4181524403742165</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3786934067380998</v>
+        <v>0.3731799320482916</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4614734414368155</v>
+        <v>0.4582090698841122</v>
       </c>
     </row>
     <row r="38">
@@ -6348,19 +6348,19 @@
         <v>286358</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>253521</v>
+        <v>252715</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>323340</v>
+        <v>319596</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.08360752098902265</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.07402027405549888</v>
+        <v>0.07378490042574815</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09440515125678328</v>
+        <v>0.09331222011193695</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>64</v>
@@ -6369,19 +6369,19 @@
         <v>70191</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>53492</v>
+        <v>55715</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>89278</v>
+        <v>91209</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.01973201499687725</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01503767512880608</v>
+        <v>0.01566267608578859</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02509773261996879</v>
+        <v>0.02564059475651379</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>344</v>
@@ -6390,19 +6390,19 @@
         <v>356548</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>319140</v>
+        <v>319590</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>395732</v>
+        <v>394996</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.05106510952769678</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.04570749857279378</v>
+        <v>0.04577192470673634</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05667702226681317</v>
+        <v>0.05657166520539313</v>
       </c>
     </row>
     <row r="40">
@@ -6419,19 +6419,19 @@
         <v>600210</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>555796</v>
+        <v>559831</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>645094</v>
+        <v>645920</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.175242658048602</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1622753287421647</v>
+        <v>0.1634531781884069</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1883474599762315</v>
+        <v>0.1885886839545559</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>215</v>
@@ -6440,19 +6440,19 @@
         <v>232600</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>205194</v>
+        <v>202470</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>264988</v>
+        <v>266076</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06538828704047898</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05768406231478844</v>
+        <v>0.05691820275579508</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07449317972883128</v>
+        <v>0.0747991130670259</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>779</v>
@@ -6461,19 +6461,19 @@
         <v>832810</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>776731</v>
+        <v>775703</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>890211</v>
+        <v>892592</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1192755688389903</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1112439830412932</v>
+        <v>0.1110967623442078</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1274965914078602</v>
+        <v>0.1278375635191586</v>
       </c>
     </row>
     <row r="41">
@@ -6490,19 +6490,19 @@
         <v>1768725</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1706727</v>
+        <v>1712751</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1833724</v>
+        <v>1828573</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.516412906784791</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4983114667707112</v>
+        <v>0.5000703205101223</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.535390687722602</v>
+        <v>0.5338866388840418</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1992</v>
@@ -6511,19 +6511,19 @@
         <v>2153591</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2092693</v>
+        <v>2089862</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>2214630</v>
+        <v>2213208</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.6054156242471843</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.5882960810869317</v>
+        <v>0.5875002850774994</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.6225746811795214</v>
+        <v>0.6221750065393539</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>3639</v>
@@ -6532,19 +6532,19 @@
         <v>3922316</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3836208</v>
+        <v>3829975</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>4004205</v>
+        <v>4004418</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.5617567832496365</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.5494243417120765</v>
+        <v>0.5485315691771796</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.5734850085047327</v>
+        <v>0.5735155026738435</v>
       </c>
     </row>
     <row r="42">
@@ -6561,19 +6561,19 @@
         <v>769729</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>721938</v>
+        <v>714917</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>819174</v>
+        <v>821697</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2247369141775843</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2107835588097481</v>
+        <v>0.2087335794035335</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2391734075614731</v>
+        <v>0.2399099270594574</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1026</v>
@@ -6582,19 +6582,19 @@
         <v>1100829</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1046330</v>
+        <v>1047095</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1159810</v>
+        <v>1164093</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3094640737154594</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2941432922116361</v>
+        <v>0.2943584660673423</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3260448439393452</v>
+        <v>0.3272488815805965</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1742</v>
@@ -6603,19 +6603,19 @@
         <v>1870558</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1789072</v>
+        <v>1792985</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1944875</v>
+        <v>1952553</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2679025383836764</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2562321568058876</v>
+        <v>0.2567925325237297</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2785462774599574</v>
+        <v>0.2796458947591188</v>
       </c>
     </row>
     <row r="43">
@@ -6950,19 +6950,19 @@
         <v>77888</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>62240</v>
+        <v>62980</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93138</v>
+        <v>95561</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.185685853080371</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1483793027419519</v>
+        <v>0.1501432817036057</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.222040350119889</v>
+        <v>0.2278175544530471</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -6971,19 +6971,19 @@
         <v>22096</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14240</v>
+        <v>14628</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31037</v>
+        <v>31962</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05583332603619644</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03598166430507604</v>
+        <v>0.03696167908615457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07842462867513814</v>
+        <v>0.08076140615501795</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -6992,19 +6992,19 @@
         <v>99985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82876</v>
+        <v>82818</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121944</v>
+        <v>121024</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1226477612666971</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1016606793279312</v>
+        <v>0.101590197400461</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1495848139233969</v>
+        <v>0.1484561514208335</v>
       </c>
     </row>
     <row r="5">
@@ -7021,19 +7021,19 @@
         <v>144049</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>122926</v>
+        <v>125878</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>166044</v>
+        <v>164184</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3434118250695718</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2930552614740005</v>
+        <v>0.3000922161061157</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3958499266180572</v>
+        <v>0.3914137629415914</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>69</v>
@@ -7042,19 +7042,19 @@
         <v>67158</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>53079</v>
+        <v>54086</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>81963</v>
+        <v>82942</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1696952440526964</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1341213869282278</v>
+        <v>0.1366663342936141</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2071059434922949</v>
+        <v>0.2095794411371068</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>204</v>
@@ -7063,19 +7063,19 @@
         <v>211206</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>186461</v>
+        <v>186598</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>239845</v>
+        <v>237744</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2590795287872362</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2287250981422478</v>
+        <v>0.2288930436559226</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2942099735439908</v>
+        <v>0.2916318721501149</v>
       </c>
     </row>
     <row r="6">
@@ -7092,19 +7092,19 @@
         <v>118138</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>101096</v>
+        <v>99403</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>137038</v>
+        <v>135788</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2816405558808753</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2410121790785609</v>
+        <v>0.2369766187706593</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3266984565979084</v>
+        <v>0.3237193194730042</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>160</v>
@@ -7113,19 +7113,19 @@
         <v>155158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>136493</v>
+        <v>136811</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>173330</v>
+        <v>173332</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3920547484790545</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.344893469209793</v>
+        <v>0.3456959877622344</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4379742483441597</v>
+        <v>0.4379769666951311</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>272</v>
@@ -7134,19 +7134,19 @@
         <v>273295</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>247262</v>
+        <v>248156</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>299466</v>
+        <v>300936</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3352421312138595</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3033075980866851</v>
+        <v>0.3044039283081316</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.367344667784423</v>
+        <v>0.3691476176584646</v>
       </c>
     </row>
     <row r="7">
@@ -7163,19 +7163,19 @@
         <v>79388</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64762</v>
+        <v>63141</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>97155</v>
+        <v>95724</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1892617659691819</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1543925531806796</v>
+        <v>0.1505276955410259</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2316170211228012</v>
+        <v>0.228207057667759</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -7184,19 +7184,19 @@
         <v>151343</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>132234</v>
+        <v>132567</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>170534</v>
+        <v>169261</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3824166814320527</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3341297581071058</v>
+        <v>0.3349727267455407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.430906992219265</v>
+        <v>0.4276917679473328</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>226</v>
@@ -7205,19 +7205,19 @@
         <v>230732</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>206245</v>
+        <v>205656</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>259197</v>
+        <v>256273</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2830305787322071</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2529931089310063</v>
+        <v>0.2522715636899326</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.317947885159247</v>
+        <v>0.3143613109833997</v>
       </c>
     </row>
     <row r="8">
@@ -7309,19 +7309,19 @@
         <v>74085</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>58917</v>
+        <v>58608</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>91448</v>
+        <v>90524</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1254619201843544</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09977517790386817</v>
+        <v>0.09925274338308844</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1548665879909328</v>
+        <v>0.1533021218321255</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -7330,19 +7330,19 @@
         <v>14249</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>8478</v>
+        <v>7764</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23260</v>
+        <v>22788</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02528547776535599</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01504351099223596</v>
+        <v>0.01377775581065538</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0412744316640356</v>
+        <v>0.04043769070132466</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>87</v>
@@ -7351,19 +7351,19 @@
         <v>88334</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>71559</v>
+        <v>71458</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>106535</v>
+        <v>107479</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07654350831260685</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06200779881553401</v>
+        <v>0.06192022016408883</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09231443096753653</v>
+        <v>0.09313324312860076</v>
       </c>
     </row>
     <row r="10">
@@ -7380,19 +7380,19 @@
         <v>169252</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>147622</v>
+        <v>147016</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>192014</v>
+        <v>193052</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2866264494334775</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.249996745363063</v>
+        <v>0.2489707133918338</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.325173532830151</v>
+        <v>0.3269326316851642</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -7401,19 +7401,19 @@
         <v>81385</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>64441</v>
+        <v>66385</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>98337</v>
+        <v>97637</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1444163140715115</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1143489959268879</v>
+        <v>0.1177986924066083</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1744972792807961</v>
+        <v>0.1732545117690209</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>244</v>
@@ -7422,19 +7422,19 @@
         <v>250637</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>222443</v>
+        <v>224137</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>279470</v>
+        <v>281783</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2171820390912083</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1927512773727819</v>
+        <v>0.1942198397560922</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2421662765313148</v>
+        <v>0.2441711716156147</v>
       </c>
     </row>
     <row r="11">
@@ -7451,19 +7451,19 @@
         <v>189958</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>167567</v>
+        <v>168367</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>212043</v>
+        <v>212084</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3216922197929418</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2837734265695582</v>
+        <v>0.2851286712200405</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3590929109928478</v>
+        <v>0.359162874521898</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>267</v>
@@ -7472,19 +7472,19 @@
         <v>259427</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>232522</v>
+        <v>236149</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>280129</v>
+        <v>280737</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4603492412790555</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4126071339991841</v>
+        <v>0.4190431823930165</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4970843098831557</v>
+        <v>0.4981634844224934</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>450</v>
@@ -7493,19 +7493,19 @@
         <v>449385</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>416395</v>
+        <v>418740</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>479818</v>
+        <v>483587</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3894015646466685</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3608150393572067</v>
+        <v>0.362847367055044</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4157725355000821</v>
+        <v>0.4190379797244208</v>
       </c>
     </row>
     <row r="12">
@@ -7522,19 +7522,19 @@
         <v>157201</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>135671</v>
+        <v>137479</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>180044</v>
+        <v>178699</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2662194105892263</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2297573777529188</v>
+        <v>0.232819799546872</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3049022712813954</v>
+        <v>0.3026250939529475</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>215</v>
@@ -7543,19 +7543,19 @@
         <v>208483</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>187972</v>
+        <v>187658</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>231307</v>
+        <v>230972</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.369948966884077</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3335532810008929</v>
+        <v>0.3329964508452392</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4104503533911096</v>
+        <v>0.4098553274895997</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>365</v>
@@ -7564,19 +7564,19 @@
         <v>365684</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>335788</v>
+        <v>335292</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>399573</v>
+        <v>394534</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3168728879495163</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2909669631713507</v>
+        <v>0.2905379303120241</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3462385669083295</v>
+        <v>0.3418723491116405</v>
       </c>
     </row>
     <row r="13">
@@ -7668,19 +7668,19 @@
         <v>43639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31820</v>
+        <v>31587</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>58014</v>
+        <v>57820</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.06522143989485901</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04755589498856736</v>
+        <v>0.04720819680085053</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08670457649665698</v>
+        <v>0.08641504377880695</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -7689,19 +7689,19 @@
         <v>18475</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11359</v>
+        <v>11627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28941</v>
+        <v>29327</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02793313478209997</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01717490873460659</v>
+        <v>0.01757936630738582</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04375865627544719</v>
+        <v>0.04434243969376526</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>59</v>
@@ -7710,19 +7710,19 @@
         <v>62114</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>47586</v>
+        <v>46605</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>78632</v>
+        <v>77394</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.046685333877489</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03576610768577168</v>
+        <v>0.03502854519010454</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05909998443189721</v>
+        <v>0.05817010933208461</v>
       </c>
     </row>
     <row r="15">
@@ -7739,19 +7739,19 @@
         <v>128620</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>108598</v>
+        <v>108418</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>152764</v>
+        <v>150610</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.192229038916925</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1623050834796766</v>
+        <v>0.162036876160813</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2283132050630357</v>
+        <v>0.2250945426771847</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>74</v>
@@ -7760,19 +7760,19 @@
         <v>77272</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>61265</v>
+        <v>60823</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>96039</v>
+        <v>96346</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1168332181990971</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.09263059618909479</v>
+        <v>0.09196261422737287</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1452082154153622</v>
+        <v>0.1456730411229259</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>198</v>
@@ -7781,19 +7781,19 @@
         <v>205892</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>181831</v>
+        <v>179373</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>234403</v>
+        <v>234557</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1547495953791688</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1366655659089273</v>
+        <v>0.1348183244624124</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1761792301421781</v>
+        <v>0.1762947911565179</v>
       </c>
     </row>
     <row r="16">
@@ -7810,19 +7810,19 @@
         <v>262385</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>235884</v>
+        <v>235811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>289423</v>
+        <v>288146</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3921478471691349</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.352540461126601</v>
+        <v>0.352431660141697</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4325574977355682</v>
+        <v>0.430648632599702</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>340</v>
@@ -7831,19 +7831,19 @@
         <v>335491</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>310634</v>
+        <v>310495</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>360674</v>
+        <v>363249</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5072547826277706</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4696710870060006</v>
+        <v>0.4694605278760534</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5453308378451309</v>
+        <v>0.5492243973238293</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>588</v>
@@ -7852,19 +7852,19 @@
         <v>597876</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>562175</v>
+        <v>564079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>634503</v>
+        <v>630728</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4493677812086085</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4225343041859805</v>
+        <v>0.4239653382850538</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4768964824644734</v>
+        <v>0.4740594956782471</v>
       </c>
     </row>
     <row r="17">
@@ -7881,19 +7881,19 @@
         <v>234453</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>212131</v>
+        <v>211800</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>261048</v>
+        <v>261786</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.350401674019081</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3170404212929713</v>
+        <v>0.3165463886108792</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3901496249519216</v>
+        <v>0.3912520322693491</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>233</v>
@@ -7902,19 +7902,19 @@
         <v>230148</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>203342</v>
+        <v>205535</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>253515</v>
+        <v>256822</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3479788643910323</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3074481422612393</v>
+        <v>0.3107634786253666</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3833083567789179</v>
+        <v>0.3883089993867342</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>458</v>
@@ -7923,19 +7923,19 @@
         <v>464601</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>430670</v>
+        <v>429806</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>504292</v>
+        <v>499594</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3491972895347337</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3236943082368337</v>
+        <v>0.3230448519306803</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3790293256966362</v>
+        <v>0.3754980577327327</v>
       </c>
     </row>
     <row r="18">
@@ -8027,19 +8027,19 @@
         <v>27306</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17939</v>
+        <v>18011</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39502</v>
+        <v>39466</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04226674607094412</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02776755602370622</v>
+        <v>0.0278782720546998</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06114387287517833</v>
+        <v>0.06108806234326589</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -8048,19 +8048,19 @@
         <v>12740</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6491</v>
+        <v>7472</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>21973</v>
+        <v>22099</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01962759601799985</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01000103015311107</v>
+        <v>0.01151249330094973</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03385264776958809</v>
+        <v>0.03404662262839207</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -8069,19 +8069,19 @@
         <v>40046</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30345</v>
+        <v>28565</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55550</v>
+        <v>53832</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03092070030154138</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02342986754632737</v>
+        <v>0.02205585024968588</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04289144251810118</v>
+        <v>0.04156539399067751</v>
       </c>
     </row>
     <row r="20">
@@ -8098,19 +8098,19 @@
         <v>89482</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>72719</v>
+        <v>73407</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108927</v>
+        <v>109022</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1385073525560895</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1125599988263506</v>
+        <v>0.1136239655984434</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1686052009403676</v>
+        <v>0.1687515544538177</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>54</v>
@@ -8119,19 +8119,19 @@
         <v>57305</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43859</v>
+        <v>44116</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>74913</v>
+        <v>74034</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08828743241513012</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06757110523022114</v>
+        <v>0.06796745369200337</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1154146792112473</v>
+        <v>0.1140610841580981</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>136</v>
@@ -8140,19 +8140,19 @@
         <v>146788</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>124927</v>
+        <v>125273</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>171657</v>
+        <v>170967</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1133386730286983</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09645924623978798</v>
+        <v>0.09672667070405469</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1325411355042171</v>
+        <v>0.1320081995270338</v>
       </c>
     </row>
     <row r="21">
@@ -8169,19 +8169,19 @@
         <v>281844</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>254456</v>
+        <v>253790</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>309777</v>
+        <v>308235</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4362585930568775</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.393866226362116</v>
+        <v>0.392835303710898</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4794954520372459</v>
+        <v>0.4771083270243299</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>311</v>
@@ -8190,19 +8190,19 @@
         <v>331115</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>304986</v>
+        <v>304223</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>357489</v>
+        <v>357858</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5101326453576396</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4698761475334928</v>
+        <v>0.468701379866763</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5507647394844121</v>
+        <v>0.55133312422877</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>564</v>
@@ -8211,19 +8211,19 @@
         <v>612959</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>574702</v>
+        <v>581459</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>647933</v>
+        <v>652078</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.4732819961711959</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4437422945801031</v>
+        <v>0.4489597097875545</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.500285741773302</v>
+        <v>0.5034863500883298</v>
       </c>
     </row>
     <row r="22">
@@ -8240,19 +8240,19 @@
         <v>247415</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>221247</v>
+        <v>222087</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>274011</v>
+        <v>272797</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3829673083160889</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3424628093175313</v>
+        <v>0.3437629520202437</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4241334300444479</v>
+        <v>0.4222553016965306</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>225</v>
@@ -8261,19 +8261,19 @@
         <v>247916</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>223290</v>
+        <v>223186</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>273400</v>
+        <v>272370</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3819523262092305</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3440111848138888</v>
+        <v>0.343850929908195</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4212142533769432</v>
+        <v>0.4196269411947538</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>447</v>
@@ -8282,19 +8282,19 @@
         <v>495332</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>459613</v>
+        <v>455618</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>527763</v>
+        <v>527285</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3824586304985644</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3548794099204092</v>
+        <v>0.3517944564868886</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4074995428396616</v>
+        <v>0.4071307311652098</v>
       </c>
     </row>
     <row r="23">
@@ -8386,19 +8386,19 @@
         <v>15556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9111</v>
+        <v>8964</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25847</v>
+        <v>25487</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.03255034706008817</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01906480711740255</v>
+        <v>0.01875547866632347</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05408281970914119</v>
+        <v>0.05332904591274888</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3</v>
@@ -8407,19 +8407,19 @@
         <v>3380</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9547</v>
+        <v>9044</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006802049597955545</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002212617215972115</v>
+        <v>0.002223111847557825</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01921420940320166</v>
+        <v>0.01820360664270418</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>17</v>
@@ -8428,19 +8428,19 @@
         <v>18936</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11754</v>
+        <v>11394</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29788</v>
+        <v>30121</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01942616878637993</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01205838981914794</v>
+        <v>0.01168857712541644</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03055919722565814</v>
+        <v>0.03090050336874249</v>
       </c>
     </row>
     <row r="25">
@@ -8457,19 +8457,19 @@
         <v>35158</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>24053</v>
+        <v>24699</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48971</v>
+        <v>48916</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07356592184166762</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0503285207980897</v>
+        <v>0.05167951531018947</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.102467999915316</v>
+        <v>0.102352191886493</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -8478,19 +8478,19 @@
         <v>31926</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21183</v>
+        <v>20655</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>45435</v>
+        <v>44818</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06425751017194198</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04263379172212104</v>
+        <v>0.04157163377455759</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09144534938206691</v>
+        <v>0.09020490057665011</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -8499,19 +8499,19 @@
         <v>67085</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>52122</v>
+        <v>51272</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>87014</v>
+        <v>85368</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06882132642217587</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05347100819217274</v>
+        <v>0.05259926132276016</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08926687810850469</v>
+        <v>0.08757806658942514</v>
       </c>
     </row>
     <row r="26">
@@ -8528,19 +8528,19 @@
         <v>256254</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>233902</v>
+        <v>232519</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>277955</v>
+        <v>277876</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5361879308518177</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4894182104564596</v>
+        <v>0.4865238651489077</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5815951990064194</v>
+        <v>0.5814294682841493</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>203</v>
@@ -8549,19 +8549,19 @@
         <v>232703</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>212105</v>
+        <v>209878</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>255304</v>
+        <v>259276</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.468358303921156</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4269006286343234</v>
+        <v>0.4224170897978628</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5138455531802328</v>
+        <v>0.5218409140594429</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>431</v>
@@ -8570,19 +8570,19 @@
         <v>488957</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>451648</v>
+        <v>456923</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>519549</v>
+        <v>525502</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5016144559497846</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.463339276531593</v>
+        <v>0.4687507112973743</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5329980916335019</v>
+        <v>0.5391054788239638</v>
       </c>
     </row>
     <row r="27">
@@ -8599,19 +8599,19 @@
         <v>170949</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>150176</v>
+        <v>149129</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>192284</v>
+        <v>193773</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3576958002464264</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3142297836714558</v>
+        <v>0.3120383608689211</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4023364346908708</v>
+        <v>0.4054516240050576</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>200</v>
@@ -8620,19 +8620,19 @@
         <v>228840</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>207602</v>
+        <v>201313</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>251991</v>
+        <v>251784</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.4605821363089465</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.417838194631488</v>
+        <v>0.4051804338510355</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5071790185869469</v>
+        <v>0.5067622982630894</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>352</v>
@@ -8641,19 +8641,19 @@
         <v>399789</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>368647</v>
+        <v>371768</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>434010</v>
+        <v>435893</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4101380488416596</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3781897719021444</v>
+        <v>0.3813918335786793</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4452452515778299</v>
+        <v>0.447176692217437</v>
       </c>
     </row>
     <row r="28">
@@ -8745,19 +8745,19 @@
         <v>3467</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9441</v>
+        <v>10036</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01036878519305545</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002791298408163686</v>
+        <v>0.002786282387992296</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02823895861035857</v>
+        <v>0.03001934920907938</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -8766,19 +8766,19 @@
         <v>3930</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>984</v>
+        <v>1005</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>9602</v>
+        <v>9074</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01040361228866214</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.002606069612902419</v>
+        <v>0.002661292910927332</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0254177856755851</v>
+        <v>0.02402033224980352</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7</v>
@@ -8787,19 +8787,19 @@
         <v>7397</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2971</v>
+        <v>3012</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>14476</v>
+        <v>15150</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01038726083012307</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0041722162516782</v>
+        <v>0.004230463133666101</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02032919571826197</v>
+        <v>0.02127545451407597</v>
       </c>
     </row>
     <row r="30">
@@ -8816,19 +8816,19 @@
         <v>17239</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>9938</v>
+        <v>10216</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27431</v>
+        <v>26172</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.05156144928098357</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02972475181065067</v>
+        <v>0.03055748757004979</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08204772132062389</v>
+        <v>0.07828241061516521</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -8837,19 +8837,19 @@
         <v>22166</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>13661</v>
+        <v>12774</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>32950</v>
+        <v>32556</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.05867750310520245</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03616379923002011</v>
+        <v>0.03381437512191322</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.08722393784483518</v>
+        <v>0.08618241252421535</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -8858,19 +8858,19 @@
         <v>39405</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>27746</v>
+        <v>29357</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>52379</v>
+        <v>55463</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.0553364878111745</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03896366123701213</v>
+        <v>0.04122575385828876</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.07355672824822294</v>
+        <v>0.07788702839749154</v>
       </c>
     </row>
     <row r="31">
@@ -8887,19 +8887,19 @@
         <v>186825</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>167988</v>
+        <v>168428</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>204261</v>
+        <v>205892</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.5588030464913383</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5024615015134354</v>
+        <v>0.5037767661412954</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6109566388297857</v>
+        <v>0.6158346609293268</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>166</v>
@@ -8908,19 +8908,19 @@
         <v>177829</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>157770</v>
+        <v>158151</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>198122</v>
+        <v>197645</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4707430577591301</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4176445629589917</v>
+        <v>0.4186513110455388</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5244621600765714</v>
+        <v>0.5232004137579853</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>347</v>
@@ -8929,19 +8929,19 @@
         <v>364653</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>338330</v>
+        <v>339641</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>397257</v>
+        <v>391004</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.5120875692557855</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.475121637917401</v>
+        <v>0.4769619313969892</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5578736545233985</v>
+        <v>0.5490926719357231</v>
       </c>
     </row>
     <row r="32">
@@ -8958,19 +8958,19 @@
         <v>126800</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>109649</v>
+        <v>108360</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>143761</v>
+        <v>145335</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3792667190346227</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3279667709844641</v>
+        <v>0.3241110640284511</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.429997959749384</v>
+        <v>0.4347062239887155</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>164</v>
@@ -8979,19 +8979,19 @@
         <v>173837</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>154336</v>
+        <v>155257</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>194320</v>
+        <v>192777</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4601758268470054</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4085548104396421</v>
+        <v>0.4109925829355991</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5143971949579313</v>
+        <v>0.5103133109228313</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>288</v>
@@ -9000,19 +9000,19 @@
         <v>300637</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>269261</v>
+        <v>274740</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>327548</v>
+        <v>325430</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.422188682102917</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3781268851984421</v>
+        <v>0.3858204109978163</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4599795733027105</v>
+        <v>0.4570054619773319</v>
       </c>
     </row>
     <row r="33">
@@ -9107,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>5850</v>
+        <v>5748</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.006444300062430164</v>
@@ -9116,7 +9116,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0227640010691405</v>
+        <v>0.02236442421679011</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -9141,7 +9141,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>5935</v>
+        <v>5171</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.002520169504948565</v>
@@ -9150,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.009030906960176326</v>
+        <v>0.00786850671798776</v>
       </c>
     </row>
     <row r="35">
@@ -9167,19 +9167,19 @@
         <v>2406</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>6392</v>
+        <v>7256</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.009360949424881996</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.003029641853926516</v>
+        <v>0.003047500900742583</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.02487302343791505</v>
+        <v>0.02823404125377418</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>4</v>
@@ -9188,19 +9188,19 @@
         <v>5006</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>1268</v>
+        <v>2354</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>13011</v>
+        <v>14781</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01250977165498775</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.003167877079014146</v>
+        <v>0.005882618303744491</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03251314689134063</v>
+        <v>0.03693565394424166</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>7</v>
@@ -9209,19 +9209,19 @@
         <v>7412</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>3289</v>
+        <v>3205</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>15719</v>
+        <v>16078</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.01127836317246216</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.005004389865510631</v>
+        <v>0.004876391267993043</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.02391955562777327</v>
+        <v>0.02446504576563498</v>
       </c>
     </row>
     <row r="36">
@@ -9238,19 +9238,19 @@
         <v>121199</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>108539</v>
+        <v>105855</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>136540</v>
+        <v>135191</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.4715954491840379</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4223325937129836</v>
+        <v>0.4118887773757912</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5312884015344946</v>
+        <v>0.5260397324190733</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>90</v>
@@ -9259,19 +9259,19 @@
         <v>121363</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>101725</v>
+        <v>100408</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>142580</v>
+        <v>143338</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3032785897319017</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2542043117011895</v>
+        <v>0.2509149335076515</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3562991299628043</v>
+        <v>0.3581932461872898</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>234</v>
@@ -9280,19 +9280,19 @@
         <v>242562</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>218198</v>
+        <v>216629</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>267715</v>
+        <v>268091</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3691021876790192</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3320279721542296</v>
+        <v>0.329640313226722</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4073774902969461</v>
+        <v>0.4079492608180606</v>
       </c>
     </row>
     <row r="37">
@@ -9309,19 +9309,19 @@
         <v>131737</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>117060</v>
+        <v>116907</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>144665</v>
+        <v>146271</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5125993013286499</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.455490355553854</v>
+        <v>0.4548934868077257</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5629035187995388</v>
+        <v>0.5691532059186899</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>207</v>
@@ -9330,19 +9330,19 @@
         <v>273800</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>252442</v>
+        <v>250902</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>293227</v>
+        <v>294036</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6842116386131105</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6308377772015422</v>
+        <v>0.6269900793738424</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7327586294481824</v>
+        <v>0.7347802449282417</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>360</v>
@@ -9351,19 +9351,19 @@
         <v>405537</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>381593</v>
+        <v>379521</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>430828</v>
+        <v>431269</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.61709927964357</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5806638710493752</v>
+        <v>0.5775105883274959</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6555835600031329</v>
+        <v>0.6562555130262144</v>
       </c>
     </row>
     <row r="38">
@@ -9455,19 +9455,19 @@
         <v>243598</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>217072</v>
+        <v>216721</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>276364</v>
+        <v>278370</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.07176575825835484</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0639510272971943</v>
+        <v>0.06384745683190016</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.08141871319418872</v>
+        <v>0.08200974604309749</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>75</v>
@@ -9476,19 +9476,19 @@
         <v>74870</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>59097</v>
+        <v>58106</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>92821</v>
+        <v>92258</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.02112258340431526</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.01667266326886035</v>
+        <v>0.01639315424584536</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.02618705274329174</v>
+        <v>0.02602816736479425</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>304</v>
@@ -9497,19 +9497,19 @@
         <v>318468</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>282300</v>
+        <v>281997</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>357521</v>
+        <v>353971</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.04589608751240931</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.04068377090656095</v>
+        <v>0.04064004735788779</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05152421467574116</v>
+        <v>0.05101261013891516</v>
       </c>
     </row>
     <row r="40">
@@ -9526,19 +9526,19 @@
         <v>586205</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>540156</v>
+        <v>541815</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>628986</v>
+        <v>629470</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1727003359120503</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1591338672201733</v>
+        <v>0.1596227002815974</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1853037274988701</v>
+        <v>0.1854463091109872</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>330</v>
@@ -9547,19 +9547,19 @@
         <v>342218</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>307614</v>
+        <v>308916</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>377288</v>
+        <v>380697</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0965479640101361</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08678535589364787</v>
+        <v>0.08715262148997857</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1064419289235935</v>
+        <v>0.1074036908078246</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>883</v>
@@ -9568,19 +9568,19 @@
         <v>928424</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>865659</v>
+        <v>872850</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>986420</v>
+        <v>990326</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1337999945866254</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1247546757255468</v>
+        <v>0.1257910351096179</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1421582038322305</v>
+        <v>0.1427210312979388</v>
       </c>
     </row>
     <row r="41">
@@ -9597,19 +9597,19 @@
         <v>1416602</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1360383</v>
+        <v>1360526</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1476791</v>
+        <v>1475521</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4173412445441711</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.4007787572451573</v>
+        <v>0.4008207370970724</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4350732524104127</v>
+        <v>0.4346991986300446</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1537</v>
@@ -9618,19 +9618,19 @@
         <v>1613086</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1554712</v>
+        <v>1555657</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1672564</v>
+        <v>1672965</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4550901502282468</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.438621408991541</v>
+        <v>0.4388880695090979</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4718704042415321</v>
+        <v>0.4719835403516757</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2886</v>
@@ -9639,19 +9639,19 @@
         <v>3029688</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2940026</v>
+        <v>2949485</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3115296</v>
+        <v>3122425</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.436624233098529</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4237025546140893</v>
+        <v>0.4250656650675014</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4489616387452064</v>
+        <v>0.4499890185761224</v>
       </c>
     </row>
     <row r="42">
@@ -9668,19 +9668,19 @@
         <v>1147944</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1091606</v>
+        <v>1088256</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1199965</v>
+        <v>1199984</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3381926612854238</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3215950534006219</v>
+        <v>0.3206081735745137</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3535183184946157</v>
+        <v>0.353523931978083</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1396</v>
@@ -9689,19 +9689,19 @@
         <v>1514368</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1455953</v>
+        <v>1454466</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1575227</v>
+        <v>1574632</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.4272393023573018</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.4107592739346166</v>
+        <v>0.410339723347931</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4444092013992952</v>
+        <v>0.444241410252863</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2496</v>
@@ -9710,19 +9710,19 @@
         <v>2662312</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2572534</v>
+        <v>2580133</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2743026</v>
+        <v>2747022</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3836796848024363</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3707413547908247</v>
+        <v>0.3718364302780425</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3953118743132139</v>
+        <v>0.3958876472687944</v>
       </c>
     </row>
     <row r="43">
@@ -10057,19 +10057,19 @@
         <v>106681</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>81592</v>
+        <v>81719</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>135351</v>
+        <v>135556</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2616062653332861</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2000814558231287</v>
+        <v>0.2003934815926331</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3319113858345139</v>
+        <v>0.3324139213058979</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -10078,19 +10078,19 @@
         <v>33942</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21380</v>
+        <v>21363</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>52564</v>
+        <v>49734</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09363135009173072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05897684114179845</v>
+        <v>0.05893044635677547</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1449980362222371</v>
+        <v>0.1371927785249804</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>67</v>
@@ -10099,19 +10099,19 @@
         <v>140624</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>111157</v>
+        <v>113972</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>174947</v>
+        <v>176089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1825558693281258</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1443031168608848</v>
+        <v>0.147956462272127</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2271136523599974</v>
+        <v>0.2285959016186943</v>
       </c>
     </row>
     <row r="5">
@@ -10128,19 +10128,19 @@
         <v>127961</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98379</v>
+        <v>99374</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>160724</v>
+        <v>157363</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3137891914672136</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2412484838406953</v>
+        <v>0.243686172722658</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3941301413314719</v>
+        <v>0.3858898186589716</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -10149,19 +10149,19 @@
         <v>45753</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30437</v>
+        <v>30751</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64952</v>
+        <v>65122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1262114759474509</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08396181173519777</v>
+        <v>0.08482870225822821</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1791718054348559</v>
+        <v>0.1796419850103395</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>84</v>
@@ -10170,19 +10170,19 @@
         <v>173714</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>142039</v>
+        <v>138400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>208371</v>
+        <v>208631</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2255135541659112</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.184392957793465</v>
+        <v>0.179669679999037</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2705051810414712</v>
+        <v>0.2708415639555587</v>
       </c>
     </row>
     <row r="6">
@@ -10199,19 +10199,19 @@
         <v>116551</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>90080</v>
+        <v>88578</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>147511</v>
+        <v>147325</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2858103680962878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2208952656184734</v>
+        <v>0.2172119738470412</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3617299996460405</v>
+        <v>0.361274305122485</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>86</v>
@@ -10220,19 +10220,19 @@
         <v>150437</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>125026</v>
+        <v>125802</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>175832</v>
+        <v>175994</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4149845895168594</v>
+        <v>0.4149845895168595</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3448882950370192</v>
+        <v>0.3470295190757893</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4850364351705531</v>
+        <v>0.4854854907866363</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>131</v>
@@ -10241,19 +10241,19 @@
         <v>266988</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>228646</v>
+        <v>231645</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>308180</v>
+        <v>309088</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3466008339957359</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2968249892328148</v>
+        <v>0.3007191479903674</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4000755019080536</v>
+        <v>0.40125359246534</v>
       </c>
     </row>
     <row r="7">
@@ -10270,19 +10270,19 @@
         <v>56599</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37310</v>
+        <v>35985</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>84544</v>
+        <v>81672</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1387941751032127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09149196353757286</v>
+        <v>0.0882427555336333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2073212959808207</v>
+        <v>0.200278920094673</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -10291,19 +10291,19 @@
         <v>132379</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>109374</v>
+        <v>105769</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>161288</v>
+        <v>158694</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3651725844439587</v>
+        <v>0.3651725844439588</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3017104179229226</v>
+        <v>0.2917659760653127</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4449177756393567</v>
+        <v>0.4377628992390735</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -10312,19 +10312,19 @@
         <v>188979</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157508</v>
+        <v>153862</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>225367</v>
+        <v>228198</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2453297425102272</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2044751273435755</v>
+        <v>0.1997419930738897</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2925688469695573</v>
+        <v>0.296244201514599</v>
       </c>
     </row>
     <row r="8">
@@ -10416,19 +10416,19 @@
         <v>91912</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>70146</v>
+        <v>71421</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>115354</v>
+        <v>114348</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1932604708602162</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1474942664583914</v>
+        <v>0.1501746006233213</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2425521930031189</v>
+        <v>0.2404358660585337</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>36</v>
@@ -10437,19 +10437,19 @@
         <v>44046</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>31675</v>
+        <v>31506</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>58799</v>
+        <v>60037</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08790236551811925</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0632133685942327</v>
+        <v>0.06287500792038359</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1173448100321873</v>
+        <v>0.1198148492036553</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>93</v>
@@ -10458,19 +10458,19 @@
         <v>135958</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>113003</v>
+        <v>108869</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>165376</v>
+        <v>163955</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1392061463550673</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1157029470042552</v>
+        <v>0.111470136822951</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1693263635735037</v>
+        <v>0.1678720189462663</v>
       </c>
     </row>
     <row r="10">
@@ -10487,19 +10487,19 @@
         <v>69907</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52768</v>
+        <v>51747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94118</v>
+        <v>93098</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.146992144098219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1109547174087525</v>
+        <v>0.1088071479396943</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1978992535209544</v>
+        <v>0.195754535204988</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -10508,19 +10508,19 @@
         <v>49546</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35851</v>
+        <v>36232</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63652</v>
+        <v>66629</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.09887729893469829</v>
+        <v>0.09887729893469827</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07154768455208844</v>
+        <v>0.07230834854700953</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1270279251551337</v>
+        <v>0.1329700886839653</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>84</v>
@@ -10529,19 +10529,19 @@
         <v>119453</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>94012</v>
+        <v>95934</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144641</v>
+        <v>146532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1223066636072865</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0962577018285545</v>
+        <v>0.09822545846738</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1480957724307782</v>
+        <v>0.1500320787019612</v>
       </c>
     </row>
     <row r="11">
@@ -10558,19 +10558,19 @@
         <v>154949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>128915</v>
+        <v>128947</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>179850</v>
+        <v>181114</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3258064417007278</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2710668127997491</v>
+        <v>0.2711333209119463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3781648047374962</v>
+        <v>0.3808232128849398</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>206</v>
@@ -10579,19 +10579,19 @@
         <v>216863</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>192993</v>
+        <v>193439</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240161</v>
+        <v>242638</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4327885356920878</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3851526831372352</v>
+        <v>0.3860417459866169</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4792829861520713</v>
+        <v>0.4842281539067025</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>307</v>
@@ -10600,19 +10600,19 @@
         <v>371812</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>335311</v>
+        <v>336963</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>404973</v>
+        <v>412442</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3806939589550715</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3433214759733869</v>
+        <v>0.3450124464659368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4146472729620802</v>
+        <v>0.4222946350986843</v>
       </c>
     </row>
     <row r="12">
@@ -10629,19 +10629,19 @@
         <v>158817</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>134419</v>
+        <v>133104</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>189056</v>
+        <v>184763</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.333940943340837</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.282639707259892</v>
+        <v>0.2798743942109161</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3975225980362438</v>
+        <v>0.3884965272689091</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>177</v>
@@ -10650,19 +10650,19 @@
         <v>190628</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>168463</v>
+        <v>168689</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>213847</v>
+        <v>214647</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3804317998550947</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3361984439867928</v>
+        <v>0.3366485066569344</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4267689951855763</v>
+        <v>0.4283664909027519</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>277</v>
@@ -10671,19 +10671,19 @@
         <v>349446</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>313496</v>
+        <v>317069</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>383487</v>
+        <v>388866</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.3577932310825747</v>
+        <v>0.3577932310825746</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3209850499565612</v>
+        <v>0.3246436470291303</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3926481595535245</v>
+        <v>0.3981550104243725</v>
       </c>
     </row>
     <row r="13">
@@ -10775,19 +10775,19 @@
         <v>83308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>67230</v>
+        <v>68594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104552</v>
+        <v>105269</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1347436696681325</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1087386290228509</v>
+        <v>0.1109445142056387</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1691038296386791</v>
+        <v>0.1702635051754157</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>64</v>
@@ -10796,19 +10796,19 @@
         <v>48868</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37331</v>
+        <v>37773</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60796</v>
+        <v>60728</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07883641059965241</v>
+        <v>0.07883641059965245</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06022461035742925</v>
+        <v>0.06093702197524772</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09807828814805257</v>
+        <v>0.09796938733266436</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -10817,19 +10817,19 @@
         <v>132176</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>112437</v>
+        <v>111398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>154576</v>
+        <v>154977</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1067540258796578</v>
+        <v>0.1067540258796577</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09081092382460537</v>
+        <v>0.08997178450759741</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1248449925983912</v>
+        <v>0.1251690858973066</v>
       </c>
     </row>
     <row r="15">
@@ -10846,19 +10846,19 @@
         <v>95729</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>78591</v>
+        <v>78045</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>115861</v>
+        <v>114476</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1548327858197844</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1271133843484053</v>
+        <v>0.1262305201880701</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1873940663407178</v>
+        <v>0.185153830655386</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>52</v>
@@ -10867,19 +10867,19 @@
         <v>38889</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>29630</v>
+        <v>29257</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>49494</v>
+        <v>50474</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.0627378538526574</v>
+        <v>0.06273785385265741</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04780072629117692</v>
+        <v>0.04719856116302855</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07984525561291007</v>
+        <v>0.08142711987792303</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>136</v>
@@ -10888,19 +10888,19 @@
         <v>134618</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>113765</v>
+        <v>112355</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>157114</v>
+        <v>157928</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1087259942611729</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.09188366937832627</v>
+        <v>0.09074475270382398</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1268952594561349</v>
+        <v>0.1275526484125109</v>
       </c>
     </row>
     <row r="16">
@@ -10917,19 +10917,19 @@
         <v>219913</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>195077</v>
+        <v>194489</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>244819</v>
+        <v>243347</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3556885554017419</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3155189949948298</v>
+        <v>0.3145679559084619</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.395973106854041</v>
+        <v>0.3935919872667847</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>400</v>
@@ -10938,19 +10938,19 @@
         <v>286394</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>265512</v>
+        <v>264693</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>307371</v>
+        <v>306801</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4620243262264117</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4283368653427463</v>
+        <v>0.4270156526827529</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4958644856561696</v>
+        <v>0.4949455904366877</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>600</v>
@@ -10959,19 +10959,19 @@
         <v>506306</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>474623</v>
+        <v>475929</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>537974</v>
+        <v>541239</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4089249400313257</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3833356622526559</v>
+        <v>0.3843905126001996</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4345017534774022</v>
+        <v>0.4371389371459067</v>
       </c>
     </row>
     <row r="17">
@@ -10988,19 +10988,19 @@
         <v>219323</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>193609</v>
+        <v>193679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>243370</v>
+        <v>245540</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3547349891103412</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3131452712180882</v>
+        <v>0.3132580888229761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3936279747492646</v>
+        <v>0.3971381118097376</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>327</v>
@@ -11009,19 +11009,19 @@
         <v>245717</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>225050</v>
+        <v>226101</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>266911</v>
+        <v>266019</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3964014093212785</v>
+        <v>0.3964014093212787</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3630605272324618</v>
+        <v>0.3647571293421997</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4305937933320307</v>
+        <v>0.4291539602949106</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>517</v>
@@ -11030,19 +11030,19 @@
         <v>465039</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>432856</v>
+        <v>435072</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>498355</v>
+        <v>497708</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3755950398278436</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3496017161074234</v>
+        <v>0.3513915026884539</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4025026479849791</v>
+        <v>0.4019806932554824</v>
       </c>
     </row>
     <row r="18">
@@ -11134,19 +11134,19 @@
         <v>76589</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61467</v>
+        <v>60826</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96182</v>
+        <v>95859</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1094930747268422</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08787421169154021</v>
+        <v>0.08695770656966244</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1375033699322126</v>
+        <v>0.1370409735760937</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -11155,19 +11155,19 @@
         <v>54662</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43909</v>
+        <v>43084</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67386</v>
+        <v>66867</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07425830738649623</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05965012382605354</v>
+        <v>0.05852957010675316</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09154437531217011</v>
+        <v>0.09083805079410232</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -11176,19 +11176,19 @@
         <v>131251</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110627</v>
+        <v>112618</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151517</v>
+        <v>152290</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.09142631049543903</v>
+        <v>0.09142631049543905</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07706005391604484</v>
+        <v>0.07844653302364354</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1055426606912267</v>
+        <v>0.1060813782351622</v>
       </c>
     </row>
     <row r="20">
@@ -11205,19 +11205,19 @@
         <v>78294</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61549</v>
+        <v>62972</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96904</v>
+        <v>99672</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1119311187357112</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08799146360560213</v>
+        <v>0.09002642424392432</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1385356898790061</v>
+        <v>0.1424925004172239</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>69</v>
@@ -11226,19 +11226,19 @@
         <v>47124</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36987</v>
+        <v>37383</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59010</v>
+        <v>58456</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06401812073370726</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05024718918141607</v>
+        <v>0.05078451086921856</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08016508196747869</v>
+        <v>0.07941280165029625</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>138</v>
@@ -11247,19 +11247,19 @@
         <v>125419</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>106427</v>
+        <v>108052</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>148646</v>
+        <v>151008</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08736354233708137</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0741345565140107</v>
+        <v>0.07526615743054527</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1035434044370756</v>
+        <v>0.1051882131040938</v>
       </c>
     </row>
     <row r="21">
@@ -11276,19 +11276,19 @@
         <v>295688</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>270980</v>
+        <v>269084</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>323777</v>
+        <v>321405</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4227210906159108</v>
+        <v>0.4227210906159107</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3873969437550657</v>
+        <v>0.3846871539491094</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4628770864952031</v>
+        <v>0.4594859923061703</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>594</v>
@@ -11297,19 +11297,19 @@
         <v>376005</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>355874</v>
+        <v>354852</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>396957</v>
+        <v>396060</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.5108024098416266</v>
+        <v>0.5108024098416265</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4834536232130736</v>
+        <v>0.4820657174441645</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5392648257016682</v>
+        <v>0.5380473720098831</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>885</v>
@@ -11318,19 +11318,19 @@
         <v>671694</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>636428</v>
+        <v>638357</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>708578</v>
+        <v>706131</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4678851302211837</v>
+        <v>0.4678851302211839</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4433196862084569</v>
+        <v>0.4446633232615716</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4935779232649145</v>
+        <v>0.4918727718279052</v>
       </c>
     </row>
     <row r="22">
@@ -11347,19 +11347,19 @@
         <v>248916</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>222577</v>
+        <v>223902</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>274362</v>
+        <v>276830</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3558547159215358</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3181992568547147</v>
+        <v>0.320094364404193</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3922324111930392</v>
+        <v>0.3957608215504639</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>396</v>
@@ -11368,19 +11368,19 @@
         <v>258316</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>237703</v>
+        <v>238423</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>278197</v>
+        <v>279073</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.35092116203817</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3229193685168795</v>
+        <v>0.3238966509174128</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3779297598125668</v>
+        <v>0.3791204025924441</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>629</v>
@@ -11389,19 +11389,19 @@
         <v>507232</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>471845</v>
+        <v>472996</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>540424</v>
+        <v>539627</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3533250169462957</v>
+        <v>0.3533250169462958</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3286755066821392</v>
+        <v>0.3294772429383163</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3764460665348376</v>
+        <v>0.3758904930018221</v>
       </c>
     </row>
     <row r="23">
@@ -11493,19 +11493,19 @@
         <v>35320</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25025</v>
+        <v>24871</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>47913</v>
+        <v>46926</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.0581444863915931</v>
+        <v>0.05814448639159311</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04119624594449327</v>
+        <v>0.04094278568542885</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07887595044329689</v>
+        <v>0.07725059962244626</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>72</v>
@@ -11514,19 +11514,19 @@
         <v>46037</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>36375</v>
+        <v>36304</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>56093</v>
+        <v>57014</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07605651126983823</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06009544219628649</v>
+        <v>0.05997732338919924</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09267093865269456</v>
+        <v>0.09419154787483208</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>111</v>
@@ -11535,19 +11535,19 @@
         <v>81357</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>68263</v>
+        <v>67202</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>97860</v>
+        <v>98069</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.06708454847378748</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05628812742155313</v>
+        <v>0.05541263181074987</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08069263794727179</v>
+        <v>0.08086479880666499</v>
       </c>
     </row>
     <row r="25">
@@ -11564,19 +11564,19 @@
         <v>45935</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>34662</v>
+        <v>34745</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58310</v>
+        <v>58685</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07561911837445622</v>
+        <v>0.07561911837445623</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05706058959702029</v>
+        <v>0.05719860589735749</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09599110426889078</v>
+        <v>0.09660804454868986</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>39</v>
@@ -11585,19 +11585,19 @@
         <v>24735</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18027</v>
+        <v>18263</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>33456</v>
+        <v>33755</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04086420684132683</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02978262841924639</v>
+        <v>0.03017203114275104</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05527241962866524</v>
+        <v>0.05576701662157833</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>88</v>
@@ -11606,19 +11606,19 @@
         <v>70670</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57541</v>
+        <v>57685</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>86998</v>
+        <v>86942</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0582726112721397</v>
+        <v>0.05827261127213969</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.047446893728708</v>
+        <v>0.0475655380395008</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07173604196888644</v>
+        <v>0.07168978871947376</v>
       </c>
     </row>
     <row r="26">
@@ -11635,19 +11635,19 @@
         <v>286251</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>262811</v>
+        <v>263418</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>308487</v>
+        <v>307602</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.471230807929637</v>
+        <v>0.4712308079296372</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4326436457491417</v>
+        <v>0.4336433678343234</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5078374783301863</v>
+        <v>0.5063799191946619</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>522</v>
@@ -11656,19 +11656,19 @@
         <v>307871</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>290754</v>
+        <v>288396</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>326335</v>
+        <v>327179</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.5086312933951563</v>
+        <v>0.5086312933951562</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4803520479527318</v>
+        <v>0.4764559638316533</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5391339947655107</v>
+        <v>0.5405290154100396</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>841</v>
@@ -11677,19 +11677,19 @@
         <v>594122</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>562576</v>
+        <v>566079</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>624743</v>
+        <v>625363</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4898977461590522</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4638857505294058</v>
+        <v>0.4667738988045342</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5151472910980847</v>
+        <v>0.5156584002165421</v>
       </c>
     </row>
     <row r="27">
@@ -11706,19 +11706,19 @@
         <v>239947</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>218075</v>
+        <v>218797</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>263876</v>
+        <v>263151</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3950055873043136</v>
+        <v>0.3950055873043137</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3589985376609161</v>
+        <v>0.3601881962070326</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4343974699847709</v>
+        <v>0.4332036047897031</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>364</v>
@@ -11727,19 +11727,19 @@
         <v>226651</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>208622</v>
+        <v>208805</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>244249</v>
+        <v>245920</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3744479884936787</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.344663007130712</v>
+        <v>0.3449646352622587</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.403520896025207</v>
+        <v>0.4062826172930857</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>618</v>
@@ -11748,19 +11748,19 @@
         <v>466598</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>437019</v>
+        <v>435295</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>495773</v>
+        <v>494271</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3847450940950207</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3603549863684938</v>
+        <v>0.3589333674446226</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4088018557883613</v>
+        <v>0.4075631747930405</v>
       </c>
     </row>
     <row r="28">
@@ -11852,19 +11852,19 @@
         <v>22199</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15807</v>
+        <v>16088</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>31370</v>
+        <v>31212</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.0546725858504115</v>
+        <v>0.05467258585041149</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03893173507907138</v>
+        <v>0.03962411422581463</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07726091557630962</v>
+        <v>0.07687082836940688</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>39</v>
@@ -11873,19 +11873,19 @@
         <v>23492</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>16671</v>
+        <v>17379</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30883</v>
+        <v>31687</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.05356541241694281</v>
+        <v>0.0535654124169428</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03801213245067712</v>
+        <v>0.03962601789617985</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.07041840175730039</v>
+        <v>0.07225018081897894</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>70</v>
@@ -11894,19 +11894,19 @@
         <v>45691</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35842</v>
+        <v>35542</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>56686</v>
+        <v>57370</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05409767029130812</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04243692776944365</v>
+        <v>0.04208141132459554</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06711633424740381</v>
+        <v>0.0679263311413757</v>
       </c>
     </row>
     <row r="30">
@@ -11923,19 +11923,19 @@
         <v>18711</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12579</v>
+        <v>12400</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>27387</v>
+        <v>27046</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.0460833286891124</v>
+        <v>0.04608332868911239</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03098067406534211</v>
+        <v>0.03053954540983863</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06745061092100457</v>
+        <v>0.06661045328112347</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>36</v>
@@ -11944,19 +11944,19 @@
         <v>20336</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14407</v>
+        <v>14516</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27590</v>
+        <v>28133</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04636800822928514</v>
+        <v>0.04636800822928513</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03285106257421198</v>
+        <v>0.0330985248517452</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06290868087985782</v>
+        <v>0.06414657413244247</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>61</v>
@@ -11965,19 +11965,19 @@
         <v>39047</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>30366</v>
+        <v>30824</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>50019</v>
+        <v>50483</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.04623115259100186</v>
+        <v>0.04623115259100187</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03595320233304942</v>
+        <v>0.03649616974267309</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05922298241458426</v>
+        <v>0.05977219049126008</v>
       </c>
     </row>
     <row r="31">
@@ -11994,19 +11994,19 @@
         <v>237646</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>220978</v>
+        <v>222236</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>254436</v>
+        <v>254361</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.585295931826012</v>
+        <v>0.5852959318260119</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5442433796838549</v>
+        <v>0.5473440458451265</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.6266478100104351</v>
+        <v>0.6264641143248283</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>455</v>
@@ -12015,19 +12015,19 @@
         <v>231294</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>217235</v>
+        <v>216104</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>247340</v>
+        <v>246163</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.5273847786691124</v>
+        <v>0.5273847786691122</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4953283453940686</v>
+        <v>0.4927492380014548</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5639714623024618</v>
+        <v>0.561287936716782</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>793</v>
@@ -12036,19 +12036,19 @@
         <v>468940</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>444734</v>
+        <v>445903</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>493206</v>
+        <v>491014</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.5552247415417469</v>
+        <v>0.5552247415417471</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.5265642201336055</v>
+        <v>0.52794880152535</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5839556744308398</v>
+        <v>0.581360355859477</v>
       </c>
     </row>
     <row r="32">
@@ -12065,19 +12065,19 @@
         <v>127471</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>112384</v>
+        <v>112604</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>144140</v>
+        <v>144297</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3139481536344642</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2767888892440307</v>
+        <v>0.277330308591018</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3550017587206932</v>
+        <v>0.3553886483643857</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>296</v>
@@ -12086,19 +12086,19 @@
         <v>163446</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>148258</v>
+        <v>148953</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>177939</v>
+        <v>177327</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.3726818006846599</v>
+        <v>0.3726818006846598</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3380499126831258</v>
+        <v>0.3396340882376219</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4057270600166242</v>
+        <v>0.4043319094968001</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>471</v>
@@ -12107,19 +12107,19 @@
         <v>290918</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>267923</v>
+        <v>267203</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>311145</v>
+        <v>310464</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3444464355759431</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3172202544859335</v>
+        <v>0.3163677671001649</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3683955135695774</v>
+        <v>0.3675893152406904</v>
       </c>
     </row>
     <row r="33">
@@ -12211,19 +12211,19 @@
         <v>11906</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7098</v>
+        <v>7178</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>18896</v>
+        <v>19443</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03863331027455435</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02303268444924582</v>
+        <v>0.02329198835609822</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0613158492737307</v>
+        <v>0.06308999501539031</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -12232,19 +12232,19 @@
         <v>10361</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5837</v>
+        <v>6117</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>16019</v>
+        <v>16067</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02239784066367034</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01261690273791927</v>
+        <v>0.01322371221303316</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0346276648297556</v>
+        <v>0.03473297673108586</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>35</v>
@@ -12253,19 +12253,19 @@
         <v>22267</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>16351</v>
+        <v>15624</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>31785</v>
+        <v>31206</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02888917190777132</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0212140626547835</v>
+        <v>0.02027013592012441</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04123714276440749</v>
+        <v>0.04048650225305197</v>
       </c>
     </row>
     <row r="35">
@@ -12282,19 +12282,19 @@
         <v>10634</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>6079</v>
+        <v>6460</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>17685</v>
+        <v>17822</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03450505745748612</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.01972656876668924</v>
+        <v>0.02096154738889893</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.05738773258892565</v>
+        <v>0.05782977660735641</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -12303,19 +12303,19 @@
         <v>7234</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>4103</v>
+        <v>4130</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>11880</v>
+        <v>11703</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.01563811025582063</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.008869121621807417</v>
+        <v>0.008926840722869136</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.02568067505389211</v>
+        <v>0.02529885629745935</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>28</v>
@@ -12324,19 +12324,19 @@
         <v>17868</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>11909</v>
+        <v>12508</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25551</v>
+        <v>26224</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02318156953271594</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01545019475966445</v>
+        <v>0.01622789536224555</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03314955720478144</v>
+        <v>0.03402333585320412</v>
       </c>
     </row>
     <row r="36">
@@ -12353,19 +12353,19 @@
         <v>158404</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>144053</v>
+        <v>143625</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>174089</v>
+        <v>172972</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.5140092209257184</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.4674397615586146</v>
+        <v>0.4660522508428945</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.5649063866872647</v>
+        <v>0.5612809444369464</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>312</v>
@@ -12374,19 +12374,19 @@
         <v>153311</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>138976</v>
+        <v>137267</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>167464</v>
+        <v>167253</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3314121801392343</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3004246278641575</v>
+        <v>0.2967287919583604</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3620050793207604</v>
+        <v>0.3615501966421317</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>553</v>
@@ -12395,19 +12395,19 @@
         <v>311716</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>291522</v>
+        <v>291329</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>333691</v>
+        <v>333890</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.4044188688489394</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.378219683717591</v>
+        <v>0.3779694507081748</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.4329301610067853</v>
+        <v>0.4331876242309766</v>
       </c>
     </row>
     <row r="37">
@@ -12424,19 +12424,19 @@
         <v>127230</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>113159</v>
+        <v>112408</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>141848</v>
+        <v>141443</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4128524113422411</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3671927278134919</v>
+        <v>0.364755053869633</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.4602865220536329</v>
+        <v>0.4589726804382677</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>535</v>
@@ -12445,19 +12445,19 @@
         <v>291693</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>277128</v>
+        <v>277790</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>307924</v>
+        <v>308102</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6305518689412746</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5990671807843359</v>
+        <v>0.6004970668697115</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6656375801755319</v>
+        <v>0.6660232138173152</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>719</v>
@@ -12466,19 +12466,19 @@
         <v>418924</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>396752</v>
+        <v>397214</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>439986</v>
+        <v>441444</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.5435103897105733</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5147442895464514</v>
+        <v>0.5153439662109174</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5708368699631128</v>
+        <v>0.5727287000212149</v>
       </c>
     </row>
     <row r="38">
@@ -12570,19 +12570,19 @@
         <v>427915</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>379960</v>
+        <v>383514</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>478699</v>
+        <v>479530</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1214703423606737</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.107857704552123</v>
+        <v>0.1088662926373118</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1358861527418696</v>
+        <v>0.1361221434341268</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>330</v>
@@ -12591,19 +12591,19 @@
         <v>261409</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>231991</v>
+        <v>233550</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>292113</v>
+        <v>292374</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.07015746672110378</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.06226221969139514</v>
+        <v>0.06268054944689727</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.07839794003743461</v>
+        <v>0.07846783514504954</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>661</v>
@@ -12612,19 +12612,19 @@
         <v>689324</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>639884</v>
+        <v>634244</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>747898</v>
+        <v>749047</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.0950945671108067</v>
+        <v>0.09509456711080669</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.08827415246268717</v>
+        <v>0.08749605684962999</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1031750277168135</v>
+        <v>0.1033336323077529</v>
       </c>
     </row>
     <row r="40">
@@ -12641,19 +12641,19 @@
         <v>447172</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>401941</v>
+        <v>399347</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>503278</v>
+        <v>497395</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1269366199535153</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1140971520531434</v>
+        <v>0.1133607545973292</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1428632890867667</v>
+        <v>0.1411934358741474</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>279</v>
@@ -12662,19 +12662,19 @@
         <v>233617</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>205673</v>
+        <v>207486</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>265222</v>
+        <v>264955</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.06269857075234514</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.05519895965874422</v>
+        <v>0.05568559850910799</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.07118095212005766</v>
+        <v>0.07110916507744038</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>619</v>
@@ -12683,19 +12683,19 @@
         <v>680788</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>620995</v>
+        <v>624745</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>737660</v>
+        <v>740212</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.09391706439164808</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.08566837758939935</v>
+        <v>0.08618569003645581</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1017627213352392</v>
+        <v>0.1021147397255646</v>
       </c>
     </row>
     <row r="41">
@@ -12712,19 +12712,19 @@
         <v>1469402</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1403545</v>
+        <v>1405527</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1532654</v>
+        <v>1533128</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4171127348377002</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3984182371537621</v>
+        <v>0.3989807553951411</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4350677855312697</v>
+        <v>0.4352022226222663</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2575</v>
@@ -12733,19 +12733,19 @@
         <v>1722176</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1661158</v>
+        <v>1665854</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1773681</v>
+        <v>1775295</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.4622010736550757</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.4458250902347469</v>
+        <v>0.4470855130980252</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4760241227168263</v>
+        <v>0.4764573292612923</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>4110</v>
@@ -12754,19 +12754,19 @@
         <v>3191578</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>3108457</v>
+        <v>3102769</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>3282247</v>
+        <v>3273620</v>
       </c>
       <c r="U41" s="6" t="n">
-        <v>0.4402889820507851</v>
+        <v>0.440288982050785</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.4288222280052479</v>
+        <v>0.4280375020228891</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.4527970676397942</v>
+        <v>0.4516069968208009</v>
       </c>
     </row>
     <row r="42">
@@ -12783,19 +12783,19 @@
         <v>1178305</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1114025</v>
+        <v>1109009</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1241214</v>
+        <v>1236492</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.334480302848111</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3162332975722714</v>
+        <v>0.3148094927891202</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.352337987108798</v>
+        <v>0.3509975941629788</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>2167</v>
@@ -12804,19 +12804,19 @@
         <v>1508830</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1459251</v>
+        <v>1453119</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1565482</v>
+        <v>1558171</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.4049428888714752</v>
+        <v>0.4049428888714753</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3916369186741544</v>
+        <v>0.3899910055452638</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.4201473400238085</v>
+        <v>0.4181851399655879</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>3328</v>
@@ -12825,19 +12825,19 @@
         <v>2687135</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2601476</v>
+        <v>2602804</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2766942</v>
+        <v>2773500</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3706993864467603</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.3588824837130749</v>
+        <v>0.3590656153863635</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3817090729197802</v>
+        <v>0.3826137442505274</v>
       </c>
     </row>
     <row r="43">
